--- a/resources/Senhas_v2.xlsx
+++ b/resources/Senhas_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\aee_digital_front\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A69514-864E-47F5-9645-A45A3DA3F98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5F22A8-57D4-4F37-AC21-C905B53AE6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$365</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$366</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1688">
   <si>
     <t>Regional</t>
   </si>
@@ -5083,6 +5083,15 @@
   </si>
   <si>
     <t>coordminas</t>
+  </si>
+  <si>
+    <t>Centro Espírita Jesus é o Caminho</t>
+  </si>
+  <si>
+    <t>jesuscaminho</t>
+  </si>
+  <si>
+    <t>j457hgf</t>
   </si>
 </sst>
 </file>
@@ -5434,10 +5443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F365"/>
+  <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="E341" sqref="E341"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="F237" sqref="F237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10094,16 +10103,22 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>835</v>
+        <v>759</v>
       </c>
       <c r="B237" t="s">
-        <v>24</v>
+        <v>1685</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D237" t="s">
+        <v>833</v>
       </c>
       <c r="E237" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="F237" t="s">
-        <v>1678</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -10111,19 +10126,13 @@
         <v>835</v>
       </c>
       <c r="B238" t="s">
-        <v>836</v>
-      </c>
-      <c r="C238" t="s">
-        <v>162</v>
-      </c>
-      <c r="D238" t="s">
-        <v>837</v>
+        <v>24</v>
       </c>
       <c r="E238" t="s">
-        <v>838</v>
+        <v>1678</v>
       </c>
       <c r="F238" t="s">
-        <v>1506</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -10131,19 +10140,19 @@
         <v>835</v>
       </c>
       <c r="B239" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C239" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="D239" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E239" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F239" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -10151,19 +10160,19 @@
         <v>835</v>
       </c>
       <c r="B240" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C240" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D240" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E240" t="s">
-        <v>1641</v>
+        <v>841</v>
       </c>
       <c r="F240" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -10171,19 +10180,19 @@
         <v>835</v>
       </c>
       <c r="B241" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C241" t="s">
-        <v>845</v>
+        <v>94</v>
       </c>
       <c r="D241" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E241" t="s">
-        <v>847</v>
+        <v>1641</v>
       </c>
       <c r="F241" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -10191,33 +10200,39 @@
         <v>835</v>
       </c>
       <c r="B242" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C242" t="s">
-        <v>603</v>
+        <v>845</v>
       </c>
       <c r="D242" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E242" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F242" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="B243" t="s">
-        <v>24</v>
+        <v>848</v>
+      </c>
+      <c r="C243" t="s">
+        <v>603</v>
+      </c>
+      <c r="D243" t="s">
+        <v>849</v>
       </c>
       <c r="E243" t="s">
-        <v>1679</v>
+        <v>850</v>
       </c>
       <c r="F243" t="s">
-        <v>1679</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -10225,19 +10240,13 @@
         <v>851</v>
       </c>
       <c r="B244" t="s">
-        <v>852</v>
-      </c>
-      <c r="C244" t="s">
-        <v>629</v>
-      </c>
-      <c r="D244" t="s">
-        <v>853</v>
+        <v>24</v>
       </c>
       <c r="E244" t="s">
-        <v>854</v>
+        <v>1679</v>
       </c>
       <c r="F244" t="s">
-        <v>1511</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -10245,19 +10254,19 @@
         <v>851</v>
       </c>
       <c r="B245" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C245" t="s">
-        <v>856</v>
+        <v>629</v>
       </c>
       <c r="D245" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E245" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="F245" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -10265,19 +10274,19 @@
         <v>851</v>
       </c>
       <c r="B246" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C246" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D246" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E246" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F246" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -10285,19 +10294,19 @@
         <v>851</v>
       </c>
       <c r="B247" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C247" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D247" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E247" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F247" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -10305,19 +10314,19 @@
         <v>851</v>
       </c>
       <c r="B248" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C248" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D248" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E248" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F248" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -10325,19 +10334,19 @@
         <v>851</v>
       </c>
       <c r="B249" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C249" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D249" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E249" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F249" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -10345,19 +10354,19 @@
         <v>851</v>
       </c>
       <c r="B250" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C250" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D250" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E250" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F250" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -10365,19 +10374,19 @@
         <v>851</v>
       </c>
       <c r="B251" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C251" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D251" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E251" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="F251" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -10385,19 +10394,19 @@
         <v>851</v>
       </c>
       <c r="B252" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C252" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D252" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E252" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="F252" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -10405,19 +10414,19 @@
         <v>851</v>
       </c>
       <c r="B253" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C253" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D253" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E253" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F253" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -10425,19 +10434,19 @@
         <v>851</v>
       </c>
       <c r="B254" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C254" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D254" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E254" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F254" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -10445,19 +10454,19 @@
         <v>851</v>
       </c>
       <c r="B255" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C255" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D255" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E255" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="F255" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -10465,19 +10474,19 @@
         <v>851</v>
       </c>
       <c r="B256" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C256" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D256" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="E256" t="s">
-        <v>1664</v>
+        <v>898</v>
       </c>
       <c r="F256" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -10485,19 +10494,19 @@
         <v>851</v>
       </c>
       <c r="B257" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C257" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D257" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E257" t="s">
-        <v>1630</v>
+        <v>1664</v>
       </c>
       <c r="F257" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -10505,19 +10514,19 @@
         <v>851</v>
       </c>
       <c r="B258" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C258" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D258" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E258" t="s">
-        <v>907</v>
+        <v>1630</v>
       </c>
       <c r="F258" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -10525,19 +10534,19 @@
         <v>851</v>
       </c>
       <c r="B259" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C259" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D259" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="E259" t="s">
-        <v>1642</v>
+        <v>907</v>
       </c>
       <c r="F259" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -10545,19 +10554,19 @@
         <v>851</v>
       </c>
       <c r="B260" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C260" t="s">
-        <v>123</v>
+        <v>909</v>
       </c>
       <c r="D260" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E260" t="s">
-        <v>913</v>
+        <v>1642</v>
       </c>
       <c r="F260" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -10565,19 +10574,19 @@
         <v>851</v>
       </c>
       <c r="B261" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C261" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D261" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E261" t="s">
-        <v>1631</v>
+        <v>913</v>
       </c>
       <c r="F261" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -10585,19 +10594,19 @@
         <v>851</v>
       </c>
       <c r="B262" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C262" t="s">
-        <v>917</v>
+        <v>127</v>
       </c>
       <c r="D262" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E262" t="s">
-        <v>919</v>
+        <v>1631</v>
       </c>
       <c r="F262" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -10605,19 +10614,19 @@
         <v>851</v>
       </c>
       <c r="B263" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C263" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D263" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E263" t="s">
-        <v>1279</v>
+        <v>919</v>
       </c>
       <c r="F263" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -10625,33 +10634,39 @@
         <v>851</v>
       </c>
       <c r="B264" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C264" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D264" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E264" t="s">
-        <v>926</v>
+        <v>1279</v>
       </c>
       <c r="F264" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>927</v>
+        <v>851</v>
       </c>
       <c r="B265" t="s">
-        <v>24</v>
+        <v>923</v>
+      </c>
+      <c r="C265" t="s">
+        <v>924</v>
+      </c>
+      <c r="D265" t="s">
+        <v>925</v>
       </c>
       <c r="E265" t="s">
-        <v>1680</v>
+        <v>926</v>
       </c>
       <c r="F265" t="s">
-        <v>1680</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -10659,19 +10674,13 @@
         <v>927</v>
       </c>
       <c r="B266" t="s">
-        <v>928</v>
-      </c>
-      <c r="C266" t="s">
-        <v>929</v>
-      </c>
-      <c r="D266" t="s">
-        <v>930</v>
+        <v>24</v>
       </c>
       <c r="E266" t="s">
-        <v>931</v>
+        <v>1680</v>
       </c>
       <c r="F266" t="s">
-        <v>1532</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -10679,19 +10688,19 @@
         <v>927</v>
       </c>
       <c r="B267" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C267" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D267" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E267" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F267" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -10699,19 +10708,19 @@
         <v>927</v>
       </c>
       <c r="B268" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C268" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D268" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E268" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F268" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -10719,19 +10728,19 @@
         <v>927</v>
       </c>
       <c r="B269" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C269" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D269" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E269" t="s">
-        <v>22</v>
+        <v>939</v>
       </c>
       <c r="F269" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -10739,19 +10748,19 @@
         <v>927</v>
       </c>
       <c r="B270" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C270" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D270" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E270" t="s">
-        <v>1643</v>
+        <v>22</v>
       </c>
       <c r="F270" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -10759,19 +10768,19 @@
         <v>927</v>
       </c>
       <c r="B271" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C271" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D271" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E271" t="s">
-        <v>949</v>
+        <v>1643</v>
       </c>
       <c r="F271" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -10779,19 +10788,19 @@
         <v>927</v>
       </c>
       <c r="B272" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C272" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D272" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E272" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F272" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -10799,19 +10808,19 @@
         <v>927</v>
       </c>
       <c r="B273" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C273" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D273" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="E273" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F273" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -10819,19 +10828,19 @@
         <v>927</v>
       </c>
       <c r="B274" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C274" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D274" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E274" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F274" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -10839,19 +10848,19 @@
         <v>927</v>
       </c>
       <c r="B275" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C275" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D275" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E275" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F275" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -10859,19 +10868,19 @@
         <v>927</v>
       </c>
       <c r="B276" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C276" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D276" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="E276" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F276" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -10879,19 +10888,19 @@
         <v>927</v>
       </c>
       <c r="B277" t="s">
-        <v>458</v>
+        <v>966</v>
       </c>
       <c r="C277" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D277" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E277" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F277" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -10899,19 +10908,19 @@
         <v>927</v>
       </c>
       <c r="B278" t="s">
-        <v>973</v>
+        <v>458</v>
       </c>
       <c r="C278" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D278" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E278" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F278" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -10919,19 +10928,19 @@
         <v>927</v>
       </c>
       <c r="B279" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C279" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D279" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E279" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F279" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -10939,19 +10948,19 @@
         <v>927</v>
       </c>
       <c r="B280" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C280" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D280" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E280" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F280" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -10959,19 +10968,19 @@
         <v>927</v>
       </c>
       <c r="B281" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C281" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D281" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="E281" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F281" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -10979,19 +10988,19 @@
         <v>927</v>
       </c>
       <c r="B282" t="s">
-        <v>695</v>
+        <v>984</v>
       </c>
       <c r="C282" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D282" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E282" t="s">
-        <v>1628</v>
+        <v>987</v>
       </c>
       <c r="F282" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -10999,19 +11008,19 @@
         <v>927</v>
       </c>
       <c r="B283" t="s">
-        <v>990</v>
+        <v>695</v>
       </c>
       <c r="C283" t="s">
-        <v>94</v>
+        <v>988</v>
       </c>
       <c r="D283" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E283" t="s">
-        <v>992</v>
+        <v>1628</v>
       </c>
       <c r="F283" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -11019,19 +11028,19 @@
         <v>927</v>
       </c>
       <c r="B284" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C284" t="s">
-        <v>994</v>
+        <v>94</v>
       </c>
       <c r="D284" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E284" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F284" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -11039,19 +11048,19 @@
         <v>927</v>
       </c>
       <c r="B285" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C285" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D285" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="E285" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="F285" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -11059,19 +11068,19 @@
         <v>927</v>
       </c>
       <c r="B286" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C286" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D286" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E286" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="F286" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -11079,19 +11088,19 @@
         <v>927</v>
       </c>
       <c r="B287" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C287" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D287" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E287" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="F287" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -11099,19 +11108,19 @@
         <v>927</v>
       </c>
       <c r="B288" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C288" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D288" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E288" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F288" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -11119,19 +11128,19 @@
         <v>927</v>
       </c>
       <c r="B289" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C289" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="D289" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E289" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="F289" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -11139,33 +11148,39 @@
         <v>927</v>
       </c>
       <c r="B290" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C290" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D290" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E290" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F290" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>1021</v>
+        <v>927</v>
       </c>
       <c r="B291" t="s">
-        <v>24</v>
+        <v>1017</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1019</v>
       </c>
       <c r="E291" t="s">
-        <v>1681</v>
+        <v>1020</v>
       </c>
       <c r="F291" t="s">
-        <v>1681</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -11173,19 +11188,13 @@
         <v>1021</v>
       </c>
       <c r="B292" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D292" t="s">
-        <v>1024</v>
+        <v>24</v>
       </c>
       <c r="E292" t="s">
-        <v>1025</v>
+        <v>1681</v>
       </c>
       <c r="F292" t="s">
-        <v>1557</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -11193,19 +11202,19 @@
         <v>1021</v>
       </c>
       <c r="B293" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C293" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D293" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="E293" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F293" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -11213,19 +11222,19 @@
         <v>1021</v>
       </c>
       <c r="B294" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C294" t="s">
-        <v>629</v>
+        <v>1027</v>
       </c>
       <c r="D294" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E294" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F294" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -11233,19 +11242,19 @@
         <v>1021</v>
       </c>
       <c r="B295" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C295" t="s">
-        <v>1034</v>
+        <v>629</v>
       </c>
       <c r="D295" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E295" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F295" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -11253,19 +11262,19 @@
         <v>1021</v>
       </c>
       <c r="B296" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C296" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D296" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E296" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F296" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -11273,19 +11282,19 @@
         <v>1021</v>
       </c>
       <c r="B297" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C297" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D297" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E297" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="F297" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -11293,19 +11302,19 @@
         <v>1021</v>
       </c>
       <c r="B298" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C298" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="D298" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E298" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F298" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -11313,19 +11322,19 @@
         <v>1021</v>
       </c>
       <c r="B299" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C299" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="D299" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E299" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F299" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -11333,19 +11342,19 @@
         <v>1021</v>
       </c>
       <c r="B300" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C300" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D300" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E300" t="s">
-        <v>1280</v>
+        <v>1052</v>
       </c>
       <c r="F300" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -11353,19 +11362,19 @@
         <v>1021</v>
       </c>
       <c r="B301" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C301" t="s">
-        <v>470</v>
+        <v>1054</v>
       </c>
       <c r="D301" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E301" t="s">
-        <v>1058</v>
+        <v>1280</v>
       </c>
       <c r="F301" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -11373,19 +11382,19 @@
         <v>1021</v>
       </c>
       <c r="B302" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C302" t="s">
-        <v>1060</v>
+        <v>470</v>
       </c>
       <c r="D302" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E302" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="F302" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -11393,19 +11402,19 @@
         <v>1021</v>
       </c>
       <c r="B303" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C303" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D303" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E303" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="F303" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -11413,19 +11422,19 @@
         <v>1021</v>
       </c>
       <c r="B304" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C304" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D304" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="E304" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="F304" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -11433,19 +11442,19 @@
         <v>1021</v>
       </c>
       <c r="B305" t="s">
-        <v>333</v>
+        <v>1067</v>
       </c>
       <c r="C305" t="s">
-        <v>334</v>
+        <v>1068</v>
       </c>
       <c r="D305" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E305" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F305" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -11453,19 +11462,19 @@
         <v>1021</v>
       </c>
       <c r="B306" t="s">
-        <v>1073</v>
+        <v>333</v>
       </c>
       <c r="C306" t="s">
-        <v>1074</v>
+        <v>334</v>
       </c>
       <c r="D306" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E306" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F306" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -11473,19 +11482,19 @@
         <v>1021</v>
       </c>
       <c r="B307" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C307" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D307" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E307" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="F307" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -11493,19 +11502,19 @@
         <v>1021</v>
       </c>
       <c r="B308" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C308" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="D308" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E308" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="F308" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -11513,19 +11522,19 @@
         <v>1021</v>
       </c>
       <c r="B309" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C309" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D309" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E309" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="F309" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -11533,19 +11542,19 @@
         <v>1021</v>
       </c>
       <c r="B310" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C310" t="s">
-        <v>845</v>
+        <v>1086</v>
       </c>
       <c r="D310" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E310" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F310" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -11553,19 +11562,19 @@
         <v>1021</v>
       </c>
       <c r="B311" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C311" t="s">
-        <v>1093</v>
+        <v>845</v>
       </c>
       <c r="D311" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E311" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F311" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -11573,33 +11582,39 @@
         <v>1021</v>
       </c>
       <c r="B312" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C312" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D312" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="E312" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F312" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>1100</v>
+        <v>1021</v>
       </c>
       <c r="B313" t="s">
-        <v>24</v>
+        <v>1096</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1098</v>
       </c>
       <c r="E313" t="s">
-        <v>1682</v>
+        <v>1099</v>
       </c>
       <c r="F313" t="s">
-        <v>1682</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -11607,19 +11622,13 @@
         <v>1100</v>
       </c>
       <c r="B314" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D314" t="s">
-        <v>1103</v>
+        <v>24</v>
       </c>
       <c r="E314" t="s">
-        <v>1104</v>
+        <v>1682</v>
       </c>
       <c r="F314" t="s">
-        <v>1578</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -11627,19 +11636,19 @@
         <v>1100</v>
       </c>
       <c r="B315" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C315" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D315" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E315" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F315" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -11647,19 +11656,19 @@
         <v>1100</v>
       </c>
       <c r="B316" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C316" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D316" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E316" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F316" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -11667,19 +11676,19 @@
         <v>1100</v>
       </c>
       <c r="B317" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C317" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="D317" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E317" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="F317" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -11687,19 +11696,19 @@
         <v>1100</v>
       </c>
       <c r="B318" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C318" t="s">
-        <v>249</v>
+        <v>1114</v>
       </c>
       <c r="D318" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E318" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F318" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -11707,19 +11716,19 @@
         <v>1100</v>
       </c>
       <c r="B319" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C319" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D319" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E319" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F319" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -11727,19 +11736,19 @@
         <v>1100</v>
       </c>
       <c r="B320" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C320" t="s">
-        <v>1124</v>
+        <v>264</v>
       </c>
       <c r="D320" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E320" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="F320" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -11747,19 +11756,19 @@
         <v>1100</v>
       </c>
       <c r="B321" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C321" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D321" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E321" t="s">
-        <v>1654</v>
+        <v>1126</v>
       </c>
       <c r="F321" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -11767,19 +11776,19 @@
         <v>1100</v>
       </c>
       <c r="B322" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C322" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D322" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E322" t="s">
-        <v>1133</v>
+        <v>1654</v>
       </c>
       <c r="F322" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -11787,19 +11796,19 @@
         <v>1100</v>
       </c>
       <c r="B323" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C323" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="D323" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="E323" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F323" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -11807,19 +11816,19 @@
         <v>1100</v>
       </c>
       <c r="B324" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C324" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D324" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E324" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="F324" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -11827,19 +11836,19 @@
         <v>1100</v>
       </c>
       <c r="B325" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C325" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="D325" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E325" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="F325" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -11847,19 +11856,19 @@
         <v>1100</v>
       </c>
       <c r="B326" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C326" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="D326" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E326" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F326" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -11867,19 +11876,19 @@
         <v>1100</v>
       </c>
       <c r="B327" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C327" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="D327" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="E327" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F327" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -11887,33 +11896,39 @@
         <v>1100</v>
       </c>
       <c r="B328" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C328" t="s">
-        <v>139</v>
+        <v>1151</v>
       </c>
       <c r="D328" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E328" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F328" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>1157</v>
+        <v>1100</v>
       </c>
       <c r="B329" t="s">
-        <v>24</v>
+        <v>1154</v>
+      </c>
+      <c r="C329" t="s">
+        <v>139</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1155</v>
       </c>
       <c r="E329" t="s">
-        <v>1683</v>
+        <v>1156</v>
       </c>
       <c r="F329" t="s">
-        <v>1683</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -11921,19 +11936,13 @@
         <v>1157</v>
       </c>
       <c r="B330" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D330" t="s">
-        <v>1160</v>
+        <v>24</v>
       </c>
       <c r="E330" t="s">
-        <v>1161</v>
+        <v>1683</v>
       </c>
       <c r="F330" t="s">
-        <v>1593</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -11941,19 +11950,19 @@
         <v>1157</v>
       </c>
       <c r="B331" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C331" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="D331" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E331" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F331" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -11961,19 +11970,19 @@
         <v>1157</v>
       </c>
       <c r="B332" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C332" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="D332" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E332" t="s">
-        <v>1632</v>
+        <v>1165</v>
       </c>
       <c r="F332" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -11981,19 +11990,19 @@
         <v>1157</v>
       </c>
       <c r="B333" t="s">
-        <v>336</v>
+        <v>1166</v>
       </c>
       <c r="C333" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D333" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E333" t="s">
-        <v>1171</v>
+        <v>1632</v>
       </c>
       <c r="F333" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -12001,19 +12010,19 @@
         <v>1157</v>
       </c>
       <c r="B334" t="s">
-        <v>1172</v>
+        <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="D334" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="E334" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="F334" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -12021,19 +12030,19 @@
         <v>1157</v>
       </c>
       <c r="B335" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C335" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="D335" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="E335" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F335" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -12041,19 +12050,19 @@
         <v>1157</v>
       </c>
       <c r="B336" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C336" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="D336" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="E336" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F336" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -12061,19 +12070,19 @@
         <v>1157</v>
       </c>
       <c r="B337" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C337" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="D337" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="E337" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F337" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -12081,19 +12090,19 @@
         <v>1157</v>
       </c>
       <c r="B338" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C338" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D338" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="E338" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="F338" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -12101,19 +12110,19 @@
         <v>1157</v>
       </c>
       <c r="B339" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C339" t="s">
-        <v>127</v>
+        <v>1189</v>
       </c>
       <c r="D339" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E339" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="F339" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -12121,33 +12130,39 @@
         <v>1157</v>
       </c>
       <c r="B340" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C340" t="s">
-        <v>1196</v>
+        <v>127</v>
       </c>
       <c r="D340" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="E340" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="F340" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>23</v>
+        <v>1157</v>
       </c>
       <c r="B341" t="s">
-        <v>24</v>
+        <v>1195</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1197</v>
       </c>
       <c r="E341" t="s">
-        <v>1281</v>
+        <v>1198</v>
       </c>
       <c r="F341" t="s">
-        <v>1281</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -12155,19 +12170,13 @@
         <v>23</v>
       </c>
       <c r="B342" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D342" t="s">
-        <v>1201</v>
+        <v>24</v>
       </c>
       <c r="E342" t="s">
-        <v>1202</v>
+        <v>1281</v>
       </c>
       <c r="F342" t="s">
-        <v>1604</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -12175,19 +12184,19 @@
         <v>23</v>
       </c>
       <c r="B343" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C343" t="s">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="D343" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E343" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F343" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -12195,19 +12204,19 @@
         <v>23</v>
       </c>
       <c r="B344" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C344" t="s">
-        <v>162</v>
+        <v>933</v>
       </c>
       <c r="D344" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="E344" t="s">
-        <v>1644</v>
+        <v>1205</v>
       </c>
       <c r="F344" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -12215,19 +12224,19 @@
         <v>23</v>
       </c>
       <c r="B345" t="s">
-        <v>668</v>
+        <v>1206</v>
       </c>
       <c r="C345" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="D345" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E345" t="s">
-        <v>1209</v>
+        <v>1644</v>
       </c>
       <c r="F345" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -12235,19 +12244,19 @@
         <v>23</v>
       </c>
       <c r="B346" t="s">
-        <v>1210</v>
+        <v>668</v>
       </c>
       <c r="C346" t="s">
-        <v>1211</v>
+        <v>55</v>
       </c>
       <c r="D346" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="E346" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F346" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -12255,19 +12264,19 @@
         <v>23</v>
       </c>
       <c r="B347" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C347" t="s">
-        <v>260</v>
+        <v>1211</v>
       </c>
       <c r="D347" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="E347" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F347" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -12275,19 +12284,19 @@
         <v>23</v>
       </c>
       <c r="B348" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C348" t="s">
-        <v>1218</v>
+        <v>260</v>
       </c>
       <c r="D348" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="E348" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="F348" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -12295,19 +12304,19 @@
         <v>23</v>
       </c>
       <c r="B349" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C349" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D349" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="E349" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F349" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -12315,19 +12324,19 @@
         <v>23</v>
       </c>
       <c r="B350" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C350" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="D350" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="E350" t="s">
-        <v>1645</v>
+        <v>1224</v>
       </c>
       <c r="F350" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -12335,19 +12344,19 @@
         <v>23</v>
       </c>
       <c r="B351" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C351" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D351" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="E351" t="s">
-        <v>1231</v>
+        <v>1645</v>
       </c>
       <c r="F351" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -12355,19 +12364,19 @@
         <v>23</v>
       </c>
       <c r="B352" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C352" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="D352" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="E352" t="s">
-        <v>1655</v>
+        <v>1231</v>
       </c>
       <c r="F352" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -12375,19 +12384,19 @@
         <v>23</v>
       </c>
       <c r="B353" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C353" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="D353" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="E353" t="s">
-        <v>1238</v>
+        <v>1655</v>
       </c>
       <c r="F353" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -12395,19 +12404,19 @@
         <v>23</v>
       </c>
       <c r="B354" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C354" t="s">
-        <v>1010</v>
+        <v>1236</v>
       </c>
       <c r="D354" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="E354" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="F354" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -12415,19 +12424,19 @@
         <v>23</v>
       </c>
       <c r="B355" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C355" t="s">
-        <v>603</v>
+        <v>1010</v>
       </c>
       <c r="D355" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="E355" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="F355" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -12435,19 +12444,19 @@
         <v>23</v>
       </c>
       <c r="B356" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C356" t="s">
-        <v>115</v>
+        <v>603</v>
       </c>
       <c r="D356" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="E356" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F356" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -12455,19 +12464,19 @@
         <v>23</v>
       </c>
       <c r="B357" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C357" t="s">
-        <v>1249</v>
+        <v>115</v>
       </c>
       <c r="D357" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="E357" t="s">
-        <v>1629</v>
+        <v>1247</v>
       </c>
       <c r="F357" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -12475,19 +12484,19 @@
         <v>23</v>
       </c>
       <c r="B358" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C358" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D358" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E358" t="s">
-        <v>1646</v>
+        <v>1629</v>
       </c>
       <c r="F358" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -12495,19 +12504,19 @@
         <v>23</v>
       </c>
       <c r="B359" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C359" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D359" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E359" t="s">
-        <v>1257</v>
+        <v>1646</v>
       </c>
       <c r="F359" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -12515,19 +12524,19 @@
         <v>23</v>
       </c>
       <c r="B360" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C360" t="s">
-        <v>307</v>
+        <v>1255</v>
       </c>
       <c r="D360" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E360" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="F360" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -12535,19 +12544,19 @@
         <v>23</v>
       </c>
       <c r="B361" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C361" t="s">
-        <v>1262</v>
+        <v>307</v>
       </c>
       <c r="D361" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E361" t="s">
-        <v>1647</v>
+        <v>1260</v>
       </c>
       <c r="F361" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -12555,19 +12564,19 @@
         <v>23</v>
       </c>
       <c r="B362" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C362" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D362" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E362" t="s">
-        <v>1267</v>
+        <v>1647</v>
       </c>
       <c r="F362" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -12575,19 +12584,19 @@
         <v>23</v>
       </c>
       <c r="B363" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C363" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="D363" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="E363" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="F363" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -12595,40 +12604,60 @@
         <v>23</v>
       </c>
       <c r="B364" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C364" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D364" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="E364" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="F364" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
+        <v>23</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E365" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F365" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
         <v>24</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B366" t="s">
         <v>24</v>
       </c>
-      <c r="E365" t="s">
+      <c r="E366" t="s">
         <v>25</v>
       </c>
-      <c r="F365" t="s">
+      <c r="F366" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F365" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J355">
-    <sortCondition ref="A2:A355"/>
-    <sortCondition ref="C2:C355"/>
+  <autoFilter ref="A1:F366" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J356">
+    <sortCondition ref="A2:A356"/>
+    <sortCondition ref="C2:C356"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resources/Senhas_v2.xlsx
+++ b/resources/Senhas_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\aee_digital_front\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5F22A8-57D4-4F37-AC21-C905B53AE6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59EB8DB-B39C-4106-AB83-1FF93BDC0973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5446,7 +5446,7 @@
   <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="F237" sqref="F237"/>
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/resources/Senhas_v2.xlsx
+++ b/resources/Senhas_v2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\aee_digital_front\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59EB8DB-B39C-4106-AB83-1FF93BDC0973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B269AC-A42A-429B-8E18-E862195D3FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$367</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1692">
   <si>
     <t>Regional</t>
   </si>
@@ -5092,6 +5092,18 @@
   </si>
   <si>
     <t>j457hgf</t>
+  </si>
+  <si>
+    <t>Casa Assistencial Francisco de Assis</t>
+  </si>
+  <si>
+    <t>CASFA</t>
+  </si>
+  <si>
+    <t>casfa</t>
+  </si>
+  <si>
+    <t>c459gho</t>
   </si>
 </sst>
 </file>
@@ -5443,10 +5455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="D245" sqref="D245"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="F267" sqref="F267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10671,16 +10683,22 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>927</v>
+        <v>851</v>
       </c>
       <c r="B266" t="s">
-        <v>24</v>
+        <v>1688</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D266" t="s">
+        <v>925</v>
       </c>
       <c r="E266" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="F266" t="s">
-        <v>1680</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -10688,19 +10706,13 @@
         <v>927</v>
       </c>
       <c r="B267" t="s">
-        <v>928</v>
-      </c>
-      <c r="C267" t="s">
-        <v>929</v>
-      </c>
-      <c r="D267" t="s">
-        <v>930</v>
+        <v>24</v>
       </c>
       <c r="E267" t="s">
-        <v>931</v>
+        <v>1680</v>
       </c>
       <c r="F267" t="s">
-        <v>1532</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -10708,19 +10720,19 @@
         <v>927</v>
       </c>
       <c r="B268" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C268" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D268" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E268" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F268" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -10728,19 +10740,19 @@
         <v>927</v>
       </c>
       <c r="B269" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C269" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D269" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E269" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F269" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -10748,19 +10760,19 @@
         <v>927</v>
       </c>
       <c r="B270" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C270" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D270" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E270" t="s">
-        <v>22</v>
+        <v>939</v>
       </c>
       <c r="F270" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -10768,19 +10780,19 @@
         <v>927</v>
       </c>
       <c r="B271" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C271" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D271" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E271" t="s">
-        <v>1643</v>
+        <v>22</v>
       </c>
       <c r="F271" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -10788,19 +10800,19 @@
         <v>927</v>
       </c>
       <c r="B272" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C272" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D272" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E272" t="s">
-        <v>949</v>
+        <v>1643</v>
       </c>
       <c r="F272" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -10808,19 +10820,19 @@
         <v>927</v>
       </c>
       <c r="B273" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C273" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D273" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E273" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F273" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -10828,19 +10840,19 @@
         <v>927</v>
       </c>
       <c r="B274" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C274" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D274" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="E274" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F274" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -10848,19 +10860,19 @@
         <v>927</v>
       </c>
       <c r="B275" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C275" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D275" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E275" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F275" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -10868,19 +10880,19 @@
         <v>927</v>
       </c>
       <c r="B276" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C276" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D276" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E276" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F276" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -10888,19 +10900,19 @@
         <v>927</v>
       </c>
       <c r="B277" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C277" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D277" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="E277" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F277" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -10908,19 +10920,19 @@
         <v>927</v>
       </c>
       <c r="B278" t="s">
-        <v>458</v>
+        <v>966</v>
       </c>
       <c r="C278" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D278" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E278" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F278" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -10928,19 +10940,19 @@
         <v>927</v>
       </c>
       <c r="B279" t="s">
-        <v>973</v>
+        <v>458</v>
       </c>
       <c r="C279" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D279" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E279" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F279" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -10948,19 +10960,19 @@
         <v>927</v>
       </c>
       <c r="B280" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C280" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D280" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E280" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F280" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -10968,19 +10980,19 @@
         <v>927</v>
       </c>
       <c r="B281" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C281" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D281" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E281" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F281" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -10988,19 +11000,19 @@
         <v>927</v>
       </c>
       <c r="B282" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C282" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D282" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="E282" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F282" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -11008,19 +11020,19 @@
         <v>927</v>
       </c>
       <c r="B283" t="s">
-        <v>695</v>
+        <v>984</v>
       </c>
       <c r="C283" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D283" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E283" t="s">
-        <v>1628</v>
+        <v>987</v>
       </c>
       <c r="F283" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -11028,19 +11040,19 @@
         <v>927</v>
       </c>
       <c r="B284" t="s">
-        <v>990</v>
+        <v>695</v>
       </c>
       <c r="C284" t="s">
-        <v>94</v>
+        <v>988</v>
       </c>
       <c r="D284" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E284" t="s">
-        <v>992</v>
+        <v>1628</v>
       </c>
       <c r="F284" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -11048,19 +11060,19 @@
         <v>927</v>
       </c>
       <c r="B285" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C285" t="s">
-        <v>994</v>
+        <v>94</v>
       </c>
       <c r="D285" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E285" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F285" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -11068,19 +11080,19 @@
         <v>927</v>
       </c>
       <c r="B286" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C286" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D286" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="E286" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="F286" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -11088,19 +11100,19 @@
         <v>927</v>
       </c>
       <c r="B287" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C287" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D287" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E287" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="F287" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -11108,19 +11120,19 @@
         <v>927</v>
       </c>
       <c r="B288" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C288" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D288" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E288" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="F288" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -11128,19 +11140,19 @@
         <v>927</v>
       </c>
       <c r="B289" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C289" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D289" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E289" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F289" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -11148,19 +11160,19 @@
         <v>927</v>
       </c>
       <c r="B290" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C290" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="D290" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E290" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="F290" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -11168,33 +11180,39 @@
         <v>927</v>
       </c>
       <c r="B291" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C291" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D291" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E291" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F291" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>1021</v>
+        <v>927</v>
       </c>
       <c r="B292" t="s">
-        <v>24</v>
+        <v>1017</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1019</v>
       </c>
       <c r="E292" t="s">
-        <v>1681</v>
+        <v>1020</v>
       </c>
       <c r="F292" t="s">
-        <v>1681</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -11202,19 +11220,13 @@
         <v>1021</v>
       </c>
       <c r="B293" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D293" t="s">
-        <v>1024</v>
+        <v>24</v>
       </c>
       <c r="E293" t="s">
-        <v>1025</v>
+        <v>1681</v>
       </c>
       <c r="F293" t="s">
-        <v>1557</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -11222,19 +11234,19 @@
         <v>1021</v>
       </c>
       <c r="B294" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C294" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D294" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="E294" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F294" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -11242,19 +11254,19 @@
         <v>1021</v>
       </c>
       <c r="B295" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C295" t="s">
-        <v>629</v>
+        <v>1027</v>
       </c>
       <c r="D295" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E295" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F295" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -11262,19 +11274,19 @@
         <v>1021</v>
       </c>
       <c r="B296" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C296" t="s">
-        <v>1034</v>
+        <v>629</v>
       </c>
       <c r="D296" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E296" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F296" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -11282,19 +11294,19 @@
         <v>1021</v>
       </c>
       <c r="B297" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C297" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D297" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E297" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F297" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -11302,19 +11314,19 @@
         <v>1021</v>
       </c>
       <c r="B298" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C298" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D298" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E298" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="F298" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -11322,19 +11334,19 @@
         <v>1021</v>
       </c>
       <c r="B299" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C299" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="D299" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E299" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F299" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -11342,19 +11354,19 @@
         <v>1021</v>
       </c>
       <c r="B300" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C300" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="D300" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E300" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F300" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -11362,19 +11374,19 @@
         <v>1021</v>
       </c>
       <c r="B301" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C301" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D301" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E301" t="s">
-        <v>1280</v>
+        <v>1052</v>
       </c>
       <c r="F301" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -11382,19 +11394,19 @@
         <v>1021</v>
       </c>
       <c r="B302" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C302" t="s">
-        <v>470</v>
+        <v>1054</v>
       </c>
       <c r="D302" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E302" t="s">
-        <v>1058</v>
+        <v>1280</v>
       </c>
       <c r="F302" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -11402,19 +11414,19 @@
         <v>1021</v>
       </c>
       <c r="B303" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C303" t="s">
-        <v>1060</v>
+        <v>470</v>
       </c>
       <c r="D303" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E303" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="F303" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -11422,19 +11434,19 @@
         <v>1021</v>
       </c>
       <c r="B304" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C304" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D304" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E304" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="F304" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -11442,19 +11454,19 @@
         <v>1021</v>
       </c>
       <c r="B305" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C305" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D305" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="E305" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="F305" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -11462,19 +11474,19 @@
         <v>1021</v>
       </c>
       <c r="B306" t="s">
-        <v>333</v>
+        <v>1067</v>
       </c>
       <c r="C306" t="s">
-        <v>334</v>
+        <v>1068</v>
       </c>
       <c r="D306" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E306" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F306" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -11482,19 +11494,19 @@
         <v>1021</v>
       </c>
       <c r="B307" t="s">
-        <v>1073</v>
+        <v>333</v>
       </c>
       <c r="C307" t="s">
-        <v>1074</v>
+        <v>334</v>
       </c>
       <c r="D307" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E307" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F307" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -11502,19 +11514,19 @@
         <v>1021</v>
       </c>
       <c r="B308" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C308" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D308" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E308" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="F308" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -11522,19 +11534,19 @@
         <v>1021</v>
       </c>
       <c r="B309" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C309" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="D309" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E309" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="F309" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -11542,19 +11554,19 @@
         <v>1021</v>
       </c>
       <c r="B310" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C310" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D310" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E310" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="F310" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -11562,19 +11574,19 @@
         <v>1021</v>
       </c>
       <c r="B311" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C311" t="s">
-        <v>845</v>
+        <v>1086</v>
       </c>
       <c r="D311" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E311" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F311" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -11582,19 +11594,19 @@
         <v>1021</v>
       </c>
       <c r="B312" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C312" t="s">
-        <v>1093</v>
+        <v>845</v>
       </c>
       <c r="D312" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E312" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F312" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -11602,33 +11614,39 @@
         <v>1021</v>
       </c>
       <c r="B313" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C313" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D313" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="E313" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F313" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>1100</v>
+        <v>1021</v>
       </c>
       <c r="B314" t="s">
-        <v>24</v>
+        <v>1096</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1098</v>
       </c>
       <c r="E314" t="s">
-        <v>1682</v>
+        <v>1099</v>
       </c>
       <c r="F314" t="s">
-        <v>1682</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -11636,19 +11654,13 @@
         <v>1100</v>
       </c>
       <c r="B315" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D315" t="s">
-        <v>1103</v>
+        <v>24</v>
       </c>
       <c r="E315" t="s">
-        <v>1104</v>
+        <v>1682</v>
       </c>
       <c r="F315" t="s">
-        <v>1578</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -11656,19 +11668,19 @@
         <v>1100</v>
       </c>
       <c r="B316" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C316" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D316" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E316" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F316" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -11676,19 +11688,19 @@
         <v>1100</v>
       </c>
       <c r="B317" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C317" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D317" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E317" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F317" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -11696,19 +11708,19 @@
         <v>1100</v>
       </c>
       <c r="B318" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C318" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="D318" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E318" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="F318" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -11716,19 +11728,19 @@
         <v>1100</v>
       </c>
       <c r="B319" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C319" t="s">
-        <v>249</v>
+        <v>1114</v>
       </c>
       <c r="D319" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E319" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F319" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -11736,19 +11748,19 @@
         <v>1100</v>
       </c>
       <c r="B320" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C320" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D320" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E320" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F320" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -11756,19 +11768,19 @@
         <v>1100</v>
       </c>
       <c r="B321" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C321" t="s">
-        <v>1124</v>
+        <v>264</v>
       </c>
       <c r="D321" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E321" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="F321" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -11776,19 +11788,19 @@
         <v>1100</v>
       </c>
       <c r="B322" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C322" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D322" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E322" t="s">
-        <v>1654</v>
+        <v>1126</v>
       </c>
       <c r="F322" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -11796,19 +11808,19 @@
         <v>1100</v>
       </c>
       <c r="B323" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C323" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D323" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E323" t="s">
-        <v>1133</v>
+        <v>1654</v>
       </c>
       <c r="F323" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -11816,19 +11828,19 @@
         <v>1100</v>
       </c>
       <c r="B324" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C324" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="D324" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="E324" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F324" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -11836,19 +11848,19 @@
         <v>1100</v>
       </c>
       <c r="B325" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C325" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D325" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E325" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="F325" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -11856,19 +11868,19 @@
         <v>1100</v>
       </c>
       <c r="B326" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C326" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="D326" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E326" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="F326" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -11876,19 +11888,19 @@
         <v>1100</v>
       </c>
       <c r="B327" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C327" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="D327" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E327" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F327" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -11896,19 +11908,19 @@
         <v>1100</v>
       </c>
       <c r="B328" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C328" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="D328" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="E328" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F328" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -11916,33 +11928,39 @@
         <v>1100</v>
       </c>
       <c r="B329" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C329" t="s">
-        <v>139</v>
+        <v>1151</v>
       </c>
       <c r="D329" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E329" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F329" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>1157</v>
+        <v>1100</v>
       </c>
       <c r="B330" t="s">
-        <v>24</v>
+        <v>1154</v>
+      </c>
+      <c r="C330" t="s">
+        <v>139</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1155</v>
       </c>
       <c r="E330" t="s">
-        <v>1683</v>
+        <v>1156</v>
       </c>
       <c r="F330" t="s">
-        <v>1683</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -11950,19 +11968,13 @@
         <v>1157</v>
       </c>
       <c r="B331" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D331" t="s">
-        <v>1160</v>
+        <v>24</v>
       </c>
       <c r="E331" t="s">
-        <v>1161</v>
+        <v>1683</v>
       </c>
       <c r="F331" t="s">
-        <v>1593</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -11970,19 +11982,19 @@
         <v>1157</v>
       </c>
       <c r="B332" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C332" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="D332" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E332" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F332" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -11990,19 +12002,19 @@
         <v>1157</v>
       </c>
       <c r="B333" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C333" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="D333" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E333" t="s">
-        <v>1632</v>
+        <v>1165</v>
       </c>
       <c r="F333" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -12010,19 +12022,19 @@
         <v>1157</v>
       </c>
       <c r="B334" t="s">
-        <v>336</v>
+        <v>1166</v>
       </c>
       <c r="C334" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D334" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E334" t="s">
-        <v>1171</v>
+        <v>1632</v>
       </c>
       <c r="F334" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -12030,19 +12042,19 @@
         <v>1157</v>
       </c>
       <c r="B335" t="s">
-        <v>1172</v>
+        <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="D335" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="E335" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="F335" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -12050,19 +12062,19 @@
         <v>1157</v>
       </c>
       <c r="B336" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C336" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="D336" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="E336" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F336" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -12070,19 +12082,19 @@
         <v>1157</v>
       </c>
       <c r="B337" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C337" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="D337" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="E337" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F337" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -12090,19 +12102,19 @@
         <v>1157</v>
       </c>
       <c r="B338" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C338" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="D338" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="E338" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F338" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -12110,19 +12122,19 @@
         <v>1157</v>
       </c>
       <c r="B339" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C339" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D339" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="E339" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="F339" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -12130,19 +12142,19 @@
         <v>1157</v>
       </c>
       <c r="B340" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C340" t="s">
-        <v>127</v>
+        <v>1189</v>
       </c>
       <c r="D340" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E340" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="F340" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -12150,33 +12162,39 @@
         <v>1157</v>
       </c>
       <c r="B341" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C341" t="s">
-        <v>1196</v>
+        <v>127</v>
       </c>
       <c r="D341" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="E341" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="F341" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>23</v>
+        <v>1157</v>
       </c>
       <c r="B342" t="s">
-        <v>24</v>
+        <v>1195</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1197</v>
       </c>
       <c r="E342" t="s">
-        <v>1281</v>
+        <v>1198</v>
       </c>
       <c r="F342" t="s">
-        <v>1281</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -12184,19 +12202,13 @@
         <v>23</v>
       </c>
       <c r="B343" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D343" t="s">
-        <v>1201</v>
+        <v>24</v>
       </c>
       <c r="E343" t="s">
-        <v>1202</v>
+        <v>1281</v>
       </c>
       <c r="F343" t="s">
-        <v>1604</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -12204,19 +12216,19 @@
         <v>23</v>
       </c>
       <c r="B344" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C344" t="s">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="D344" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E344" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F344" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -12224,19 +12236,19 @@
         <v>23</v>
       </c>
       <c r="B345" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C345" t="s">
-        <v>162</v>
+        <v>933</v>
       </c>
       <c r="D345" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="E345" t="s">
-        <v>1644</v>
+        <v>1205</v>
       </c>
       <c r="F345" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -12244,19 +12256,19 @@
         <v>23</v>
       </c>
       <c r="B346" t="s">
-        <v>668</v>
+        <v>1206</v>
       </c>
       <c r="C346" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="D346" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E346" t="s">
-        <v>1209</v>
+        <v>1644</v>
       </c>
       <c r="F346" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -12264,19 +12276,19 @@
         <v>23</v>
       </c>
       <c r="B347" t="s">
-        <v>1210</v>
+        <v>668</v>
       </c>
       <c r="C347" t="s">
-        <v>1211</v>
+        <v>55</v>
       </c>
       <c r="D347" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="E347" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F347" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -12284,19 +12296,19 @@
         <v>23</v>
       </c>
       <c r="B348" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C348" t="s">
-        <v>260</v>
+        <v>1211</v>
       </c>
       <c r="D348" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="E348" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F348" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -12304,19 +12316,19 @@
         <v>23</v>
       </c>
       <c r="B349" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C349" t="s">
-        <v>1218</v>
+        <v>260</v>
       </c>
       <c r="D349" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="E349" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="F349" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -12324,19 +12336,19 @@
         <v>23</v>
       </c>
       <c r="B350" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C350" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D350" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="E350" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F350" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -12344,19 +12356,19 @@
         <v>23</v>
       </c>
       <c r="B351" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C351" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="D351" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="E351" t="s">
-        <v>1645</v>
+        <v>1224</v>
       </c>
       <c r="F351" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -12364,19 +12376,19 @@
         <v>23</v>
       </c>
       <c r="B352" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C352" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D352" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="E352" t="s">
-        <v>1231</v>
+        <v>1645</v>
       </c>
       <c r="F352" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -12384,19 +12396,19 @@
         <v>23</v>
       </c>
       <c r="B353" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C353" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="D353" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="E353" t="s">
-        <v>1655</v>
+        <v>1231</v>
       </c>
       <c r="F353" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -12404,19 +12416,19 @@
         <v>23</v>
       </c>
       <c r="B354" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C354" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="D354" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="E354" t="s">
-        <v>1238</v>
+        <v>1655</v>
       </c>
       <c r="F354" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -12424,19 +12436,19 @@
         <v>23</v>
       </c>
       <c r="B355" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C355" t="s">
-        <v>1010</v>
+        <v>1236</v>
       </c>
       <c r="D355" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="E355" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="F355" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -12444,19 +12456,19 @@
         <v>23</v>
       </c>
       <c r="B356" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C356" t="s">
-        <v>603</v>
+        <v>1010</v>
       </c>
       <c r="D356" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="E356" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="F356" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -12464,19 +12476,19 @@
         <v>23</v>
       </c>
       <c r="B357" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C357" t="s">
-        <v>115</v>
+        <v>603</v>
       </c>
       <c r="D357" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="E357" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F357" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -12484,19 +12496,19 @@
         <v>23</v>
       </c>
       <c r="B358" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C358" t="s">
-        <v>1249</v>
+        <v>115</v>
       </c>
       <c r="D358" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="E358" t="s">
-        <v>1629</v>
+        <v>1247</v>
       </c>
       <c r="F358" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -12504,19 +12516,19 @@
         <v>23</v>
       </c>
       <c r="B359" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C359" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D359" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E359" t="s">
-        <v>1646</v>
+        <v>1629</v>
       </c>
       <c r="F359" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -12524,19 +12536,19 @@
         <v>23</v>
       </c>
       <c r="B360" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C360" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D360" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E360" t="s">
-        <v>1257</v>
+        <v>1646</v>
       </c>
       <c r="F360" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -12544,19 +12556,19 @@
         <v>23</v>
       </c>
       <c r="B361" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C361" t="s">
-        <v>307</v>
+        <v>1255</v>
       </c>
       <c r="D361" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E361" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="F361" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -12564,19 +12576,19 @@
         <v>23</v>
       </c>
       <c r="B362" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C362" t="s">
-        <v>1262</v>
+        <v>307</v>
       </c>
       <c r="D362" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E362" t="s">
-        <v>1647</v>
+        <v>1260</v>
       </c>
       <c r="F362" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -12584,19 +12596,19 @@
         <v>23</v>
       </c>
       <c r="B363" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C363" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D363" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E363" t="s">
-        <v>1267</v>
+        <v>1647</v>
       </c>
       <c r="F363" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -12604,19 +12616,19 @@
         <v>23</v>
       </c>
       <c r="B364" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C364" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="D364" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="E364" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="F364" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -12624,40 +12636,60 @@
         <v>23</v>
       </c>
       <c r="B365" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C365" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D365" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="E365" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="F365" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
+        <v>23</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E366" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F366" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
         <v>24</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B367" t="s">
         <v>24</v>
       </c>
-      <c r="E366" t="s">
+      <c r="E367" t="s">
         <v>25</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F367" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F366" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J356">
-    <sortCondition ref="A2:A356"/>
-    <sortCondition ref="C2:C356"/>
+  <autoFilter ref="A1:F367" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J357">
+    <sortCondition ref="A2:A357"/>
+    <sortCondition ref="C2:C357"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resources/Senhas_v2.xlsx
+++ b/resources/Senhas_v2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\aee_digital_front\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B269AC-A42A-429B-8E18-E862195D3FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F9DEF4-3473-4A8E-B8CD-4BCF2C95C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$367</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$369</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="1698">
   <si>
     <t>Regional</t>
   </si>
@@ -5104,6 +5104,24 @@
   </si>
   <si>
     <t>c459gho</t>
+  </si>
+  <si>
+    <t>Fraternidade Espírita Nova Esperança</t>
+  </si>
+  <si>
+    <t>novaesp</t>
+  </si>
+  <si>
+    <t>g453hnb</t>
+  </si>
+  <si>
+    <t>h712bnv</t>
+  </si>
+  <si>
+    <t>paulomaceio</t>
+  </si>
+  <si>
+    <t>Fraternidade de Estudos Espírita Paulo de Tarso - Maceió</t>
   </si>
 </sst>
 </file>
@@ -5455,10 +5473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F367"/>
+  <dimension ref="A1:F369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="F267" sqref="F267"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9547,36 +9565,36 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>735</v>
+        <v>667</v>
       </c>
       <c r="B208" t="s">
-        <v>24</v>
+        <v>1692</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1185</v>
       </c>
       <c r="E208" t="s">
-        <v>1676</v>
+        <v>1693</v>
       </c>
       <c r="F208" t="s">
-        <v>1676</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>735</v>
+        <v>667</v>
       </c>
       <c r="B209" t="s">
-        <v>736</v>
+        <v>1697</v>
       </c>
       <c r="C209" t="s">
-        <v>226</v>
-      </c>
-      <c r="D209" t="s">
-        <v>737</v>
+        <v>115</v>
       </c>
       <c r="E209" t="s">
-        <v>738</v>
+        <v>1696</v>
       </c>
       <c r="F209" t="s">
-        <v>1479</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -9584,19 +9602,13 @@
         <v>735</v>
       </c>
       <c r="B210" t="s">
-        <v>739</v>
-      </c>
-      <c r="C210" t="s">
-        <v>629</v>
-      </c>
-      <c r="D210" t="s">
-        <v>740</v>
+        <v>24</v>
       </c>
       <c r="E210" t="s">
-        <v>741</v>
+        <v>1676</v>
       </c>
       <c r="F210" t="s">
-        <v>1480</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -9604,19 +9616,19 @@
         <v>735</v>
       </c>
       <c r="B211" t="s">
-        <v>689</v>
+        <v>736</v>
       </c>
       <c r="C211" t="s">
-        <v>690</v>
+        <v>226</v>
       </c>
       <c r="D211" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E211" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F211" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -9624,19 +9636,19 @@
         <v>735</v>
       </c>
       <c r="B212" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C212" t="s">
-        <v>745</v>
+        <v>629</v>
       </c>
       <c r="D212" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E212" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F212" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -9644,19 +9656,19 @@
         <v>735</v>
       </c>
       <c r="B213" t="s">
-        <v>748</v>
+        <v>689</v>
       </c>
       <c r="C213" t="s">
-        <v>749</v>
+        <v>690</v>
       </c>
       <c r="D213" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E213" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F213" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -9664,19 +9676,19 @@
         <v>735</v>
       </c>
       <c r="B214" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C214" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D214" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="E214" t="s">
-        <v>1662</v>
+        <v>747</v>
       </c>
       <c r="F214" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -9684,53 +9696,59 @@
         <v>735</v>
       </c>
       <c r="B215" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C215" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D215" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="E215" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="F215" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="B216" t="s">
-        <v>24</v>
+        <v>752</v>
+      </c>
+      <c r="C216" t="s">
+        <v>753</v>
+      </c>
+      <c r="D216" t="s">
+        <v>754</v>
       </c>
       <c r="E216" t="s">
-        <v>1677</v>
+        <v>1662</v>
       </c>
       <c r="F216" t="s">
-        <v>1677</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="B217" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C217" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D217" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E217" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F217" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -9738,19 +9756,13 @@
         <v>759</v>
       </c>
       <c r="B218" t="s">
-        <v>764</v>
-      </c>
-      <c r="C218" t="s">
-        <v>55</v>
-      </c>
-      <c r="D218" t="s">
-        <v>765</v>
+        <v>24</v>
       </c>
       <c r="E218" t="s">
-        <v>766</v>
+        <v>1677</v>
       </c>
       <c r="F218" t="s">
-        <v>1487</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -9758,19 +9770,19 @@
         <v>759</v>
       </c>
       <c r="B219" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C219" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="D219" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="E219" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="F219" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -9778,19 +9790,19 @@
         <v>759</v>
       </c>
       <c r="B220" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C220" t="s">
-        <v>772</v>
+        <v>55</v>
       </c>
       <c r="D220" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="E220" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="F220" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -9798,19 +9810,19 @@
         <v>759</v>
       </c>
       <c r="B221" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C221" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D221" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="E221" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F221" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -9818,19 +9830,19 @@
         <v>759</v>
       </c>
       <c r="B222" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="C222" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="D222" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="E222" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F222" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -9838,19 +9850,19 @@
         <v>759</v>
       </c>
       <c r="B223" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="C223" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D223" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="E223" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F223" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -9858,19 +9870,19 @@
         <v>759</v>
       </c>
       <c r="B224" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="C224" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="D224" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E224" t="s">
-        <v>1663</v>
+        <v>782</v>
       </c>
       <c r="F224" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -9878,19 +9890,19 @@
         <v>759</v>
       </c>
       <c r="B225" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C225" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="D225" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="E225" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F225" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -9898,19 +9910,19 @@
         <v>759</v>
       </c>
       <c r="B226" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C226" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D226" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="E226" t="s">
-        <v>797</v>
+        <v>1663</v>
       </c>
       <c r="F226" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -9918,19 +9930,19 @@
         <v>759</v>
       </c>
       <c r="B227" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="C227" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="D227" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E227" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F227" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -9938,19 +9950,19 @@
         <v>759</v>
       </c>
       <c r="B228" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="C228" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D228" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E228" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F228" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -9958,19 +9970,19 @@
         <v>759</v>
       </c>
       <c r="B229" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="C229" t="s">
-        <v>63</v>
+        <v>799</v>
       </c>
       <c r="D229" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="E229" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="F229" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -9978,19 +9990,19 @@
         <v>759</v>
       </c>
       <c r="B230" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C230" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D230" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="E230" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="F230" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -9998,19 +10010,19 @@
         <v>759</v>
       </c>
       <c r="B231" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C231" t="s">
-        <v>814</v>
+        <v>63</v>
       </c>
       <c r="D231" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="E231" t="s">
-        <v>1640</v>
+        <v>808</v>
       </c>
       <c r="F231" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -10018,19 +10030,19 @@
         <v>759</v>
       </c>
       <c r="B232" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C232" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D232" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="E232" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F232" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -10038,19 +10050,19 @@
         <v>759</v>
       </c>
       <c r="B233" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="C233" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D233" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="E233" t="s">
-        <v>823</v>
+        <v>1640</v>
       </c>
       <c r="F233" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -10058,19 +10070,19 @@
         <v>759</v>
       </c>
       <c r="B234" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="C234" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="D234" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="E234" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="F234" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -10078,19 +10090,19 @@
         <v>759</v>
       </c>
       <c r="B235" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="C235" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="D235" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E235" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F235" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -10098,19 +10110,19 @@
         <v>759</v>
       </c>
       <c r="B236" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="C236" t="s">
-        <v>726</v>
+        <v>825</v>
       </c>
       <c r="D236" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E236" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="F236" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -10118,53 +10130,59 @@
         <v>759</v>
       </c>
       <c r="B237" t="s">
-        <v>1685</v>
+        <v>828</v>
       </c>
       <c r="C237" t="s">
-        <v>1685</v>
+        <v>829</v>
       </c>
       <c r="D237" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E237" t="s">
-        <v>1686</v>
+        <v>831</v>
       </c>
       <c r="F237" t="s">
-        <v>1687</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>835</v>
+        <v>759</v>
       </c>
       <c r="B238" t="s">
-        <v>24</v>
+        <v>832</v>
+      </c>
+      <c r="C238" t="s">
+        <v>726</v>
+      </c>
+      <c r="D238" t="s">
+        <v>833</v>
       </c>
       <c r="E238" t="s">
-        <v>1678</v>
+        <v>834</v>
       </c>
       <c r="F238" t="s">
-        <v>1678</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>835</v>
+        <v>759</v>
       </c>
       <c r="B239" t="s">
-        <v>836</v>
+        <v>1685</v>
       </c>
       <c r="C239" t="s">
-        <v>162</v>
+        <v>1685</v>
       </c>
       <c r="D239" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E239" t="s">
-        <v>838</v>
+        <v>1686</v>
       </c>
       <c r="F239" t="s">
-        <v>1506</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -10172,19 +10190,13 @@
         <v>835</v>
       </c>
       <c r="B240" t="s">
-        <v>839</v>
-      </c>
-      <c r="C240" t="s">
-        <v>63</v>
-      </c>
-      <c r="D240" t="s">
-        <v>840</v>
+        <v>24</v>
       </c>
       <c r="E240" t="s">
-        <v>841</v>
+        <v>1678</v>
       </c>
       <c r="F240" t="s">
-        <v>1507</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -10192,19 +10204,19 @@
         <v>835</v>
       </c>
       <c r="B241" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C241" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="D241" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E241" t="s">
-        <v>1641</v>
+        <v>838</v>
       </c>
       <c r="F241" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -10212,19 +10224,19 @@
         <v>835</v>
       </c>
       <c r="B242" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C242" t="s">
-        <v>845</v>
+        <v>63</v>
       </c>
       <c r="D242" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="E242" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F242" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -10232,53 +10244,59 @@
         <v>835</v>
       </c>
       <c r="B243" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C243" t="s">
-        <v>603</v>
+        <v>94</v>
       </c>
       <c r="D243" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E243" t="s">
-        <v>850</v>
+        <v>1641</v>
       </c>
       <c r="F243" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="B244" t="s">
-        <v>24</v>
+        <v>844</v>
+      </c>
+      <c r="C244" t="s">
+        <v>845</v>
+      </c>
+      <c r="D244" t="s">
+        <v>846</v>
       </c>
       <c r="E244" t="s">
-        <v>1679</v>
+        <v>847</v>
       </c>
       <c r="F244" t="s">
-        <v>1679</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="B245" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C245" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="D245" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E245" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="F245" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -10286,19 +10304,13 @@
         <v>851</v>
       </c>
       <c r="B246" t="s">
-        <v>855</v>
-      </c>
-      <c r="C246" t="s">
-        <v>856</v>
-      </c>
-      <c r="D246" t="s">
-        <v>857</v>
+        <v>24</v>
       </c>
       <c r="E246" t="s">
-        <v>858</v>
+        <v>1679</v>
       </c>
       <c r="F246" t="s">
-        <v>1512</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -10306,19 +10318,19 @@
         <v>851</v>
       </c>
       <c r="B247" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="C247" t="s">
-        <v>860</v>
+        <v>629</v>
       </c>
       <c r="D247" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="E247" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="F247" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -10326,19 +10338,19 @@
         <v>851</v>
       </c>
       <c r="B248" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="C248" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="D248" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="E248" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="F248" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -10346,19 +10358,19 @@
         <v>851</v>
       </c>
       <c r="B249" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="C249" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="D249" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="E249" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="F249" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -10366,19 +10378,19 @@
         <v>851</v>
       </c>
       <c r="B250" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="C250" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="D250" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E250" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="F250" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -10386,19 +10398,19 @@
         <v>851</v>
       </c>
       <c r="B251" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="C251" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="D251" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="E251" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="F251" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -10406,19 +10418,19 @@
         <v>851</v>
       </c>
       <c r="B252" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="C252" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="D252" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="E252" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="F252" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -10426,19 +10438,19 @@
         <v>851</v>
       </c>
       <c r="B253" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="C253" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="D253" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E253" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F253" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -10446,19 +10458,19 @@
         <v>851</v>
       </c>
       <c r="B254" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="C254" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D254" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="E254" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="F254" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -10466,19 +10478,19 @@
         <v>851</v>
       </c>
       <c r="B255" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="C255" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="D255" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="E255" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="F255" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -10486,19 +10498,19 @@
         <v>851</v>
       </c>
       <c r="B256" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C256" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D256" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="E256" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="F256" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -10506,19 +10518,19 @@
         <v>851</v>
       </c>
       <c r="B257" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="C257" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D257" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="E257" t="s">
-        <v>1664</v>
+        <v>894</v>
       </c>
       <c r="F257" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -10526,19 +10538,19 @@
         <v>851</v>
       </c>
       <c r="B258" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="C258" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D258" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E258" t="s">
-        <v>1630</v>
+        <v>898</v>
       </c>
       <c r="F258" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -10546,19 +10558,19 @@
         <v>851</v>
       </c>
       <c r="B259" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C259" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D259" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="E259" t="s">
-        <v>907</v>
+        <v>1664</v>
       </c>
       <c r="F259" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -10566,19 +10578,19 @@
         <v>851</v>
       </c>
       <c r="B260" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="C260" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="D260" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E260" t="s">
-        <v>1642</v>
+        <v>1630</v>
       </c>
       <c r="F260" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -10586,19 +10598,19 @@
         <v>851</v>
       </c>
       <c r="B261" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C261" t="s">
-        <v>123</v>
+        <v>905</v>
       </c>
       <c r="D261" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E261" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="F261" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -10606,19 +10618,19 @@
         <v>851</v>
       </c>
       <c r="B262" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C262" t="s">
-        <v>127</v>
+        <v>909</v>
       </c>
       <c r="D262" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="E262" t="s">
-        <v>1631</v>
+        <v>1642</v>
       </c>
       <c r="F262" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -10626,19 +10638,19 @@
         <v>851</v>
       </c>
       <c r="B263" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C263" t="s">
-        <v>917</v>
+        <v>123</v>
       </c>
       <c r="D263" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="E263" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F263" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -10646,19 +10658,19 @@
         <v>851</v>
       </c>
       <c r="B264" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C264" t="s">
-        <v>921</v>
+        <v>127</v>
       </c>
       <c r="D264" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="E264" t="s">
-        <v>1279</v>
+        <v>1631</v>
       </c>
       <c r="F264" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -10666,19 +10678,19 @@
         <v>851</v>
       </c>
       <c r="B265" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="C265" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="D265" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="E265" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="F265" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -10686,53 +10698,59 @@
         <v>851</v>
       </c>
       <c r="B266" t="s">
-        <v>1688</v>
+        <v>920</v>
       </c>
       <c r="C266" t="s">
-        <v>1689</v>
+        <v>921</v>
       </c>
       <c r="D266" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E266" t="s">
-        <v>1690</v>
+        <v>1279</v>
       </c>
       <c r="F266" t="s">
-        <v>1691</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>927</v>
+        <v>851</v>
       </c>
       <c r="B267" t="s">
-        <v>24</v>
+        <v>923</v>
+      </c>
+      <c r="C267" t="s">
+        <v>924</v>
+      </c>
+      <c r="D267" t="s">
+        <v>925</v>
       </c>
       <c r="E267" t="s">
-        <v>1680</v>
+        <v>926</v>
       </c>
       <c r="F267" t="s">
-        <v>1680</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>927</v>
+        <v>851</v>
       </c>
       <c r="B268" t="s">
-        <v>928</v>
+        <v>1688</v>
       </c>
       <c r="C268" t="s">
-        <v>929</v>
+        <v>1689</v>
       </c>
       <c r="D268" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="E268" t="s">
-        <v>931</v>
+        <v>1690</v>
       </c>
       <c r="F268" t="s">
-        <v>1532</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -10740,19 +10758,13 @@
         <v>927</v>
       </c>
       <c r="B269" t="s">
-        <v>932</v>
-      </c>
-      <c r="C269" t="s">
-        <v>933</v>
-      </c>
-      <c r="D269" t="s">
-        <v>934</v>
+        <v>24</v>
       </c>
       <c r="E269" t="s">
-        <v>935</v>
+        <v>1680</v>
       </c>
       <c r="F269" t="s">
-        <v>1533</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -10760,19 +10772,19 @@
         <v>927</v>
       </c>
       <c r="B270" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="C270" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="D270" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="E270" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="F270" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -10780,19 +10792,19 @@
         <v>927</v>
       </c>
       <c r="B271" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="C271" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="D271" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="E271" t="s">
-        <v>22</v>
+        <v>935</v>
       </c>
       <c r="F271" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -10800,19 +10812,19 @@
         <v>927</v>
       </c>
       <c r="B272" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="C272" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="D272" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="E272" t="s">
-        <v>1643</v>
+        <v>939</v>
       </c>
       <c r="F272" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -10820,19 +10832,19 @@
         <v>927</v>
       </c>
       <c r="B273" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C273" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D273" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E273" t="s">
-        <v>949</v>
+        <v>22</v>
       </c>
       <c r="F273" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -10840,19 +10852,19 @@
         <v>927</v>
       </c>
       <c r="B274" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C274" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="D274" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="E274" t="s">
-        <v>953</v>
+        <v>1643</v>
       </c>
       <c r="F274" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -10860,19 +10872,19 @@
         <v>927</v>
       </c>
       <c r="B275" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="C275" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="D275" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="E275" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="F275" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -10880,19 +10892,19 @@
         <v>927</v>
       </c>
       <c r="B276" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="C276" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="D276" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="E276" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F276" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -10900,19 +10912,19 @@
         <v>927</v>
       </c>
       <c r="B277" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="C277" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="D277" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="E277" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="F277" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -10920,19 +10932,19 @@
         <v>927</v>
       </c>
       <c r="B278" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="C278" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="D278" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="E278" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F278" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -10940,19 +10952,19 @@
         <v>927</v>
       </c>
       <c r="B279" t="s">
-        <v>458</v>
+        <v>962</v>
       </c>
       <c r="C279" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="D279" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="E279" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="F279" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -10960,19 +10972,19 @@
         <v>927</v>
       </c>
       <c r="B280" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="C280" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="D280" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="E280" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F280" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -10980,19 +10992,19 @@
         <v>927</v>
       </c>
       <c r="B281" t="s">
-        <v>976</v>
+        <v>458</v>
       </c>
       <c r="C281" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="D281" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="E281" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="F281" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -11000,19 +11012,19 @@
         <v>927</v>
       </c>
       <c r="B282" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C282" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="D282" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="E282" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="F282" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -11020,19 +11032,19 @@
         <v>927</v>
       </c>
       <c r="B283" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="C283" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="D283" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="E283" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="F283" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -11040,19 +11052,19 @@
         <v>927</v>
       </c>
       <c r="B284" t="s">
-        <v>695</v>
+        <v>980</v>
       </c>
       <c r="C284" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="D284" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="E284" t="s">
-        <v>1628</v>
+        <v>983</v>
       </c>
       <c r="F284" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -11060,19 +11072,19 @@
         <v>927</v>
       </c>
       <c r="B285" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C285" t="s">
-        <v>94</v>
+        <v>985</v>
       </c>
       <c r="D285" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E285" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="F285" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -11080,19 +11092,19 @@
         <v>927</v>
       </c>
       <c r="B286" t="s">
-        <v>993</v>
+        <v>695</v>
       </c>
       <c r="C286" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D286" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="E286" t="s">
-        <v>996</v>
+        <v>1628</v>
       </c>
       <c r="F286" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -11100,19 +11112,19 @@
         <v>927</v>
       </c>
       <c r="B287" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="C287" t="s">
-        <v>998</v>
+        <v>94</v>
       </c>
       <c r="D287" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="E287" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="F287" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -11120,19 +11132,19 @@
         <v>927</v>
       </c>
       <c r="B288" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="C288" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="D288" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="E288" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="F288" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -11140,19 +11152,19 @@
         <v>927</v>
       </c>
       <c r="B289" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C289" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="D289" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="E289" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="F289" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -11160,19 +11172,19 @@
         <v>927</v>
       </c>
       <c r="B290" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="C290" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="D290" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="E290" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="F290" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -11180,19 +11192,19 @@
         <v>927</v>
       </c>
       <c r="B291" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="C291" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="D291" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="E291" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="F291" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -11200,53 +11212,59 @@
         <v>927</v>
       </c>
       <c r="B292" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="C292" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="D292" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="E292" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="F292" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>1021</v>
+        <v>927</v>
       </c>
       <c r="B293" t="s">
-        <v>24</v>
+        <v>1013</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1015</v>
       </c>
       <c r="E293" t="s">
-        <v>1681</v>
+        <v>1016</v>
       </c>
       <c r="F293" t="s">
-        <v>1681</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>1021</v>
+        <v>927</v>
       </c>
       <c r="B294" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C294" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D294" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="E294" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F294" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -11254,19 +11272,13 @@
         <v>1021</v>
       </c>
       <c r="B295" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D295" t="s">
-        <v>1028</v>
+        <v>24</v>
       </c>
       <c r="E295" t="s">
-        <v>1029</v>
+        <v>1681</v>
       </c>
       <c r="F295" t="s">
-        <v>1558</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -11274,19 +11286,19 @@
         <v>1021</v>
       </c>
       <c r="B296" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="C296" t="s">
-        <v>629</v>
+        <v>1023</v>
       </c>
       <c r="D296" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="E296" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="F296" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -11294,19 +11306,19 @@
         <v>1021</v>
       </c>
       <c r="B297" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="C297" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="D297" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="E297" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="F297" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -11314,19 +11326,19 @@
         <v>1021</v>
       </c>
       <c r="B298" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="C298" t="s">
-        <v>1038</v>
+        <v>629</v>
       </c>
       <c r="D298" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="E298" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="F298" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -11334,19 +11346,19 @@
         <v>1021</v>
       </c>
       <c r="B299" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C299" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="D299" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="E299" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="F299" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -11354,19 +11366,19 @@
         <v>1021</v>
       </c>
       <c r="B300" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="C300" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="D300" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="E300" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="F300" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -11374,19 +11386,19 @@
         <v>1021</v>
       </c>
       <c r="B301" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="C301" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="D301" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="E301" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="F301" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -11394,19 +11406,19 @@
         <v>1021</v>
       </c>
       <c r="B302" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="C302" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="D302" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="E302" t="s">
-        <v>1280</v>
+        <v>1048</v>
       </c>
       <c r="F302" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -11414,19 +11426,19 @@
         <v>1021</v>
       </c>
       <c r="B303" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="C303" t="s">
-        <v>470</v>
+        <v>1050</v>
       </c>
       <c r="D303" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="E303" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="F303" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -11434,19 +11446,19 @@
         <v>1021</v>
       </c>
       <c r="B304" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C304" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="D304" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="E304" t="s">
-        <v>1062</v>
+        <v>1280</v>
       </c>
       <c r="F304" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -11454,19 +11466,19 @@
         <v>1021</v>
       </c>
       <c r="B305" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="C305" t="s">
-        <v>1064</v>
+        <v>470</v>
       </c>
       <c r="D305" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="E305" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="F305" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -11474,19 +11486,19 @@
         <v>1021</v>
       </c>
       <c r="B306" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="C306" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="D306" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="E306" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="F306" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -11494,19 +11506,19 @@
         <v>1021</v>
       </c>
       <c r="B307" t="s">
-        <v>333</v>
+        <v>1063</v>
       </c>
       <c r="C307" t="s">
-        <v>334</v>
+        <v>1064</v>
       </c>
       <c r="D307" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E307" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="F307" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -11514,19 +11526,19 @@
         <v>1021</v>
       </c>
       <c r="B308" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="C308" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="D308" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E308" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="F308" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -11534,19 +11546,19 @@
         <v>1021</v>
       </c>
       <c r="B309" t="s">
-        <v>1077</v>
+        <v>333</v>
       </c>
       <c r="C309" t="s">
-        <v>1078</v>
+        <v>334</v>
       </c>
       <c r="D309" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="E309" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="F309" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -11554,19 +11566,19 @@
         <v>1021</v>
       </c>
       <c r="B310" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="C310" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="D310" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="E310" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="F310" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -11574,19 +11586,19 @@
         <v>1021</v>
       </c>
       <c r="B311" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="C311" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D311" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="E311" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="F311" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -11594,19 +11606,19 @@
         <v>1021</v>
       </c>
       <c r="B312" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="C312" t="s">
-        <v>845</v>
+        <v>1082</v>
       </c>
       <c r="D312" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="E312" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="F312" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -11614,19 +11626,19 @@
         <v>1021</v>
       </c>
       <c r="B313" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="C313" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="D313" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="E313" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="F313" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -11634,53 +11646,59 @@
         <v>1021</v>
       </c>
       <c r="B314" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="C314" t="s">
-        <v>1097</v>
+        <v>845</v>
       </c>
       <c r="D314" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="E314" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="F314" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>1100</v>
+        <v>1021</v>
       </c>
       <c r="B315" t="s">
-        <v>24</v>
+        <v>1092</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1094</v>
       </c>
       <c r="E315" t="s">
-        <v>1682</v>
+        <v>1095</v>
       </c>
       <c r="F315" t="s">
-        <v>1682</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>1100</v>
+        <v>1021</v>
       </c>
       <c r="B316" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C316" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="D316" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="E316" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="F316" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -11688,19 +11706,13 @@
         <v>1100</v>
       </c>
       <c r="B317" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1107</v>
+        <v>24</v>
       </c>
       <c r="E317" t="s">
-        <v>1108</v>
+        <v>1682</v>
       </c>
       <c r="F317" t="s">
-        <v>1579</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -11708,19 +11720,19 @@
         <v>1100</v>
       </c>
       <c r="B318" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="C318" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="D318" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="E318" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="F318" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -11728,19 +11740,19 @@
         <v>1100</v>
       </c>
       <c r="B319" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="C319" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="D319" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="E319" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="F319" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -11748,19 +11760,19 @@
         <v>1100</v>
       </c>
       <c r="B320" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="C320" t="s">
-        <v>249</v>
+        <v>1110</v>
       </c>
       <c r="D320" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="E320" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="F320" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -11768,19 +11780,19 @@
         <v>1100</v>
       </c>
       <c r="B321" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="C321" t="s">
-        <v>264</v>
+        <v>1114</v>
       </c>
       <c r="D321" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="E321" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="F321" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -11788,19 +11800,19 @@
         <v>1100</v>
       </c>
       <c r="B322" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C322" t="s">
-        <v>1124</v>
+        <v>249</v>
       </c>
       <c r="D322" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="E322" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="F322" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -11808,19 +11820,19 @@
         <v>1100</v>
       </c>
       <c r="B323" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="C323" t="s">
-        <v>1128</v>
+        <v>264</v>
       </c>
       <c r="D323" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="E323" t="s">
-        <v>1654</v>
+        <v>1122</v>
       </c>
       <c r="F323" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -11828,19 +11840,19 @@
         <v>1100</v>
       </c>
       <c r="B324" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="C324" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="D324" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="E324" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="F324" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -11848,19 +11860,19 @@
         <v>1100</v>
       </c>
       <c r="B325" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="C325" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="D325" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="E325" t="s">
-        <v>1137</v>
+        <v>1654</v>
       </c>
       <c r="F325" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -11868,19 +11880,19 @@
         <v>1100</v>
       </c>
       <c r="B326" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="C326" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="D326" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="E326" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="F326" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -11888,19 +11900,19 @@
         <v>1100</v>
       </c>
       <c r="B327" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="C327" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="D327" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="E327" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="F327" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -11908,19 +11920,19 @@
         <v>1100</v>
       </c>
       <c r="B328" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="C328" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="D328" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="E328" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="F328" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -11928,19 +11940,19 @@
         <v>1100</v>
       </c>
       <c r="B329" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="C329" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="D329" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="E329" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="F329" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -11948,53 +11960,59 @@
         <v>1100</v>
       </c>
       <c r="B330" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="C330" t="s">
-        <v>139</v>
+        <v>1147</v>
       </c>
       <c r="D330" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="E330" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="F330" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>1157</v>
+        <v>1100</v>
       </c>
       <c r="B331" t="s">
-        <v>24</v>
+        <v>1150</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1152</v>
       </c>
       <c r="E331" t="s">
-        <v>1683</v>
+        <v>1153</v>
       </c>
       <c r="F331" t="s">
-        <v>1683</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>1157</v>
+        <v>1100</v>
       </c>
       <c r="B332" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C332" t="s">
-        <v>1159</v>
+        <v>139</v>
       </c>
       <c r="D332" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="E332" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="F332" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -12002,19 +12020,13 @@
         <v>1157</v>
       </c>
       <c r="B333" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D333" t="s">
-        <v>1164</v>
+        <v>24</v>
       </c>
       <c r="E333" t="s">
-        <v>1165</v>
+        <v>1683</v>
       </c>
       <c r="F333" t="s">
-        <v>1594</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -12022,19 +12034,19 @@
         <v>1157</v>
       </c>
       <c r="B334" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="C334" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="D334" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="E334" t="s">
-        <v>1632</v>
+        <v>1161</v>
       </c>
       <c r="F334" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -12042,19 +12054,19 @@
         <v>1157</v>
       </c>
       <c r="B335" t="s">
-        <v>336</v>
+        <v>1162</v>
       </c>
       <c r="C335" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="D335" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="E335" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="F335" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -12062,19 +12074,19 @@
         <v>1157</v>
       </c>
       <c r="B336" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="C336" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="D336" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="E336" t="s">
-        <v>1175</v>
+        <v>1632</v>
       </c>
       <c r="F336" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -12082,19 +12094,19 @@
         <v>1157</v>
       </c>
       <c r="B337" t="s">
-        <v>1176</v>
+        <v>336</v>
       </c>
       <c r="C337" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="D337" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="E337" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="F337" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -12102,19 +12114,19 @@
         <v>1157</v>
       </c>
       <c r="B338" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="C338" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="D338" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="E338" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="F338" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -12122,19 +12134,19 @@
         <v>1157</v>
       </c>
       <c r="B339" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="C339" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="D339" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="E339" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="F339" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -12142,19 +12154,19 @@
         <v>1157</v>
       </c>
       <c r="B340" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="C340" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="D340" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="E340" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="F340" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -12162,19 +12174,19 @@
         <v>1157</v>
       </c>
       <c r="B341" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="C341" t="s">
-        <v>127</v>
+        <v>1185</v>
       </c>
       <c r="D341" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="E341" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="F341" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -12182,53 +12194,59 @@
         <v>1157</v>
       </c>
       <c r="B342" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="C342" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="D342" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="E342" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="F342" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>23</v>
+        <v>1157</v>
       </c>
       <c r="B343" t="s">
-        <v>24</v>
+        <v>1192</v>
+      </c>
+      <c r="C343" t="s">
+        <v>127</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1193</v>
       </c>
       <c r="E343" t="s">
-        <v>1281</v>
+        <v>1194</v>
       </c>
       <c r="F343" t="s">
-        <v>1281</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>23</v>
+        <v>1157</v>
       </c>
       <c r="B344" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="C344" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="D344" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E344" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="F344" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -12236,19 +12254,13 @@
         <v>23</v>
       </c>
       <c r="B345" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C345" t="s">
-        <v>933</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1204</v>
+        <v>24</v>
       </c>
       <c r="E345" t="s">
-        <v>1205</v>
+        <v>1281</v>
       </c>
       <c r="F345" t="s">
-        <v>1605</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -12256,19 +12268,19 @@
         <v>23</v>
       </c>
       <c r="B346" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="C346" t="s">
-        <v>162</v>
+        <v>1200</v>
       </c>
       <c r="D346" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="E346" t="s">
-        <v>1644</v>
+        <v>1202</v>
       </c>
       <c r="F346" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -12276,19 +12288,19 @@
         <v>23</v>
       </c>
       <c r="B347" t="s">
-        <v>668</v>
+        <v>1203</v>
       </c>
       <c r="C347" t="s">
-        <v>55</v>
+        <v>933</v>
       </c>
       <c r="D347" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E347" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F347" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -12296,19 +12308,19 @@
         <v>23</v>
       </c>
       <c r="B348" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C348" t="s">
-        <v>1211</v>
+        <v>162</v>
       </c>
       <c r="D348" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="E348" t="s">
-        <v>1213</v>
+        <v>1644</v>
       </c>
       <c r="F348" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -12316,19 +12328,19 @@
         <v>23</v>
       </c>
       <c r="B349" t="s">
-        <v>1214</v>
+        <v>668</v>
       </c>
       <c r="C349" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="D349" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="E349" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="F349" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -12336,19 +12348,19 @@
         <v>23</v>
       </c>
       <c r="B350" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="C350" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="D350" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="E350" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="F350" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -12356,19 +12368,19 @@
         <v>23</v>
       </c>
       <c r="B351" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="C351" t="s">
-        <v>1222</v>
+        <v>260</v>
       </c>
       <c r="D351" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="E351" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="F351" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -12376,19 +12388,19 @@
         <v>23</v>
       </c>
       <c r="B352" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="C352" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="D352" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="E352" t="s">
-        <v>1645</v>
+        <v>1220</v>
       </c>
       <c r="F352" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -12396,19 +12408,19 @@
         <v>23</v>
       </c>
       <c r="B353" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="C353" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="D353" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="E353" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="F353" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -12416,19 +12428,19 @@
         <v>23</v>
       </c>
       <c r="B354" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="C354" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="D354" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="E354" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="F354" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -12436,19 +12448,19 @@
         <v>23</v>
       </c>
       <c r="B355" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="C355" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="D355" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E355" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="F355" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -12456,19 +12468,19 @@
         <v>23</v>
       </c>
       <c r="B356" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="C356" t="s">
-        <v>1010</v>
+        <v>1233</v>
       </c>
       <c r="D356" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="E356" t="s">
-        <v>1241</v>
+        <v>1655</v>
       </c>
       <c r="F356" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -12476,19 +12488,19 @@
         <v>23</v>
       </c>
       <c r="B357" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="C357" t="s">
-        <v>603</v>
+        <v>1236</v>
       </c>
       <c r="D357" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="E357" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="F357" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -12496,19 +12508,19 @@
         <v>23</v>
       </c>
       <c r="B358" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="C358" t="s">
-        <v>115</v>
+        <v>1010</v>
       </c>
       <c r="D358" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="E358" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="F358" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -12516,19 +12528,19 @@
         <v>23</v>
       </c>
       <c r="B359" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="C359" t="s">
-        <v>1249</v>
+        <v>603</v>
       </c>
       <c r="D359" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="E359" t="s">
-        <v>1629</v>
+        <v>1244</v>
       </c>
       <c r="F359" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -12536,19 +12548,19 @@
         <v>23</v>
       </c>
       <c r="B360" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="C360" t="s">
-        <v>1252</v>
+        <v>115</v>
       </c>
       <c r="D360" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="E360" t="s">
-        <v>1646</v>
+        <v>1247</v>
       </c>
       <c r="F360" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -12556,19 +12568,19 @@
         <v>23</v>
       </c>
       <c r="B361" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="C361" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="D361" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="E361" t="s">
-        <v>1257</v>
+        <v>1629</v>
       </c>
       <c r="F361" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -12576,19 +12588,19 @@
         <v>23</v>
       </c>
       <c r="B362" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="C362" t="s">
-        <v>307</v>
+        <v>1252</v>
       </c>
       <c r="D362" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="E362" t="s">
-        <v>1260</v>
+        <v>1646</v>
       </c>
       <c r="F362" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -12596,19 +12608,19 @@
         <v>23</v>
       </c>
       <c r="B363" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="C363" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="D363" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="E363" t="s">
-        <v>1647</v>
+        <v>1257</v>
       </c>
       <c r="F363" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -12616,19 +12628,19 @@
         <v>23</v>
       </c>
       <c r="B364" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C364" t="s">
-        <v>1265</v>
+        <v>307</v>
       </c>
       <c r="D364" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="E364" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="F364" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -12636,19 +12648,19 @@
         <v>23</v>
       </c>
       <c r="B365" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="C365" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="D365" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="E365" t="s">
-        <v>1271</v>
+        <v>1647</v>
       </c>
       <c r="F365" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -12656,40 +12668,80 @@
         <v>23</v>
       </c>
       <c r="B366" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="C366" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="D366" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="E366" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="F366" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
+        <v>23</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E367" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F367" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>23</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E368" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F368" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>24</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B369" t="s">
         <v>24</v>
       </c>
-      <c r="E367" t="s">
+      <c r="E369" t="s">
         <v>25</v>
       </c>
-      <c r="F367" t="s">
+      <c r="F369" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F367" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J357">
-    <sortCondition ref="A2:A357"/>
-    <sortCondition ref="C2:C357"/>
+  <autoFilter ref="A1:F369" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J359">
+    <sortCondition ref="A2:A359"/>
+    <sortCondition ref="C2:C359"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resources/Senhas_v2.xlsx
+++ b/resources/Senhas_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\aee_digital_front\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F9DEF4-3473-4A8E-B8CD-4BCF2C95C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C2743E-F3FF-4E5B-BEF5-C9DDE15B494C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="1718">
   <si>
     <t>Regional</t>
   </si>
@@ -5122,6 +5122,66 @@
   </si>
   <si>
     <t>Fraternidade de Estudos Espírita Paulo de Tarso - Maceió</t>
+  </si>
+  <si>
+    <t>8abc172</t>
+  </si>
+  <si>
+    <t>5ara810</t>
+  </si>
+  <si>
+    <t>5cam876</t>
+  </si>
+  <si>
+    <t>1cen548</t>
+  </si>
+  <si>
+    <t>5ext564</t>
+  </si>
+  <si>
+    <t>7ext833</t>
+  </si>
+  <si>
+    <t>7lit339</t>
+  </si>
+  <si>
+    <t>5lit626</t>
+  </si>
+  <si>
+    <t>9min410</t>
+  </si>
+  <si>
+    <t>8nor919</t>
+  </si>
+  <si>
+    <t>2nor348</t>
+  </si>
+  <si>
+    <t>6pir743</t>
+  </si>
+  <si>
+    <t>9rib822</t>
+  </si>
+  <si>
+    <t>4sor159</t>
+  </si>
+  <si>
+    <t>1spc503</t>
+  </si>
+  <si>
+    <t>6spl767</t>
+  </si>
+  <si>
+    <t>6spn579</t>
+  </si>
+  <si>
+    <t>1spo757</t>
+  </si>
+  <si>
+    <t>5sps963</t>
+  </si>
+  <si>
+    <t>6val190</t>
   </si>
 </sst>
 </file>
@@ -5475,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5520,7 +5580,7 @@
         <v>1666</v>
       </c>
       <c r="F2" t="s">
-        <v>1666</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6214,7 +6274,7 @@
         <v>1667</v>
       </c>
       <c r="F37" t="s">
-        <v>1667</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6588,7 +6648,7 @@
         <v>1668</v>
       </c>
       <c r="F56" t="s">
-        <v>1668</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7122,7 +7182,7 @@
         <v>1669</v>
       </c>
       <c r="F83" t="s">
-        <v>1669</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -7296,7 +7356,7 @@
         <v>1670</v>
       </c>
       <c r="F92" t="s">
-        <v>1670</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -7770,7 +7830,7 @@
         <v>1671</v>
       </c>
       <c r="F116" t="s">
-        <v>1671</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -7864,7 +7924,7 @@
         <v>1672</v>
       </c>
       <c r="F121" t="s">
-        <v>1672</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -8238,7 +8298,7 @@
         <v>1673</v>
       </c>
       <c r="F140" t="s">
-        <v>1673</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -8472,7 +8532,7 @@
         <v>1684</v>
       </c>
       <c r="F152" t="s">
-        <v>1684</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -8866,7 +8926,7 @@
         <v>1674</v>
       </c>
       <c r="F172" t="s">
-        <v>1674</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -9180,7 +9240,7 @@
         <v>1675</v>
       </c>
       <c r="F188" t="s">
-        <v>1675</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -9608,7 +9668,7 @@
         <v>1676</v>
       </c>
       <c r="F210" t="s">
-        <v>1676</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -9762,7 +9822,7 @@
         <v>1677</v>
       </c>
       <c r="F218" t="s">
-        <v>1677</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -10196,7 +10256,7 @@
         <v>1678</v>
       </c>
       <c r="F240" t="s">
-        <v>1678</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -10310,7 +10370,7 @@
         <v>1679</v>
       </c>
       <c r="F246" t="s">
-        <v>1679</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -10764,7 +10824,7 @@
         <v>1680</v>
       </c>
       <c r="F269" t="s">
-        <v>1680</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -11278,7 +11338,7 @@
         <v>1681</v>
       </c>
       <c r="F295" t="s">
-        <v>1681</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -11712,7 +11772,7 @@
         <v>1682</v>
       </c>
       <c r="F317" t="s">
-        <v>1682</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -12026,7 +12086,7 @@
         <v>1683</v>
       </c>
       <c r="F333" t="s">
-        <v>1683</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -12260,7 +12320,7 @@
         <v>1281</v>
       </c>
       <c r="F345" t="s">
-        <v>1281</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">

--- a/resources/Senhas_v2.xlsx
+++ b/resources/Senhas_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\aee_digital_front\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C2743E-F3FF-4E5B-BEF5-C9DDE15B494C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E3C3E9-3F38-4B1D-A2C6-5F423ACE7A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5535,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10435,7 +10435,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>851</v>
+        <v>927</v>
       </c>
       <c r="B250" t="s">
         <v>863</v>

--- a/resources/Senhas_v2.xlsx
+++ b/resources/Senhas_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\aee_digital_front\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E3C3E9-3F38-4B1D-A2C6-5F423ACE7A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91928A5E-3B04-4315-BC50-D2E791AEE518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1167,9 +1167,6 @@
     <t>defidel</t>
   </si>
   <si>
-    <t>Centre D'Études Spirites Allan Kardec</t>
-  </si>
-  <si>
     <t>Cesak</t>
   </si>
   <si>
@@ -1212,9 +1209,6 @@
     <t>gaiaport</t>
   </si>
   <si>
-    <t>Centre d'Études Spirite Paul et Etienne</t>
-  </si>
-  <si>
     <t>Gespe</t>
   </si>
   <si>
@@ -2223,12 +2217,6 @@
     <t>fesementedeluz</t>
   </si>
   <si>
-    <t>Casa De Oração Tereza D'Ávila</t>
-  </si>
-  <si>
-    <t>Tereza D'Avila</t>
-  </si>
-  <si>
     <t>NORDESTE 1_Tereza D'Avila</t>
   </si>
   <si>
@@ -5182,6 +5170,18 @@
   </si>
   <si>
     <t>6val190</t>
+  </si>
+  <si>
+    <t>Centre D Études Spirites Allan Kardec</t>
+  </si>
+  <si>
+    <t>Centre d Études Spirite Paul et Etienne</t>
+  </si>
+  <si>
+    <t>Tereza D Avila</t>
+  </si>
+  <si>
+    <t>Casa De Oração Tereza D Ávila</t>
   </si>
 </sst>
 </file>
@@ -5536,7 +5536,7 @@
   <dimension ref="A1:F369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+      <selection activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5577,10 +5577,10 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="F2" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5600,7 +5600,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5620,7 +5620,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5640,7 +5640,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5657,10 +5657,10 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="F6" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5680,7 +5680,7 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5700,7 +5700,7 @@
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5720,7 +5720,7 @@
         <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5740,7 +5740,7 @@
         <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -5760,7 +5760,7 @@
         <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5780,7 +5780,7 @@
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5800,7 +5800,7 @@
         <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5817,10 +5817,10 @@
         <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="F14" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5840,7 +5840,7 @@
         <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5860,7 +5860,7 @@
         <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -5880,7 +5880,7 @@
         <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5900,7 +5900,7 @@
         <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5920,7 +5920,7 @@
         <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -5937,10 +5937,10 @@
         <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="F20" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5951,16 +5951,16 @@
         <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="D21" t="s">
         <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="F21" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5977,10 +5977,10 @@
         <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="F22" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6000,7 +6000,7 @@
         <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -6017,10 +6017,10 @@
         <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="F24" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6040,7 +6040,7 @@
         <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6060,7 +6060,7 @@
         <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6080,7 +6080,7 @@
         <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -6100,7 +6100,7 @@
         <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6120,7 +6120,7 @@
         <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -6140,7 +6140,7 @@
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6160,7 +6160,7 @@
         <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -6180,7 +6180,7 @@
         <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6200,7 +6200,7 @@
         <v>141</v>
       </c>
       <c r="F33" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6220,7 +6220,7 @@
         <v>145</v>
       </c>
       <c r="F34" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -6237,10 +6237,10 @@
         <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="F35" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -6260,7 +6260,7 @@
         <v>152</v>
       </c>
       <c r="F36" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -6271,10 +6271,10 @@
         <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="F37" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6294,7 +6294,7 @@
         <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6314,7 +6314,7 @@
         <v>160</v>
       </c>
       <c r="F39" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -6331,10 +6331,10 @@
         <v>163</v>
       </c>
       <c r="E40" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="F40" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -6351,10 +6351,10 @@
         <v>166</v>
       </c>
       <c r="E41" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="F41" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -6374,7 +6374,7 @@
         <v>170</v>
       </c>
       <c r="F42" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -6394,7 +6394,7 @@
         <v>174</v>
       </c>
       <c r="F43" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -6414,7 +6414,7 @@
         <v>178</v>
       </c>
       <c r="F44" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -6434,7 +6434,7 @@
         <v>182</v>
       </c>
       <c r="F45" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -6454,7 +6454,7 @@
         <v>186</v>
       </c>
       <c r="F46" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -6474,7 +6474,7 @@
         <v>190</v>
       </c>
       <c r="F47" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -6491,10 +6491,10 @@
         <v>193</v>
       </c>
       <c r="E48" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="F48" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -6511,10 +6511,10 @@
         <v>196</v>
       </c>
       <c r="E49" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="F49" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -6534,7 +6534,7 @@
         <v>200</v>
       </c>
       <c r="F50" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -6551,10 +6551,10 @@
         <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="F51" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -6574,7 +6574,7 @@
         <v>206</v>
       </c>
       <c r="F52" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -6594,7 +6594,7 @@
         <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -6614,7 +6614,7 @@
         <v>212</v>
       </c>
       <c r="F54" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -6634,7 +6634,7 @@
         <v>216</v>
       </c>
       <c r="F55" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -6645,10 +6645,10 @@
         <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="F56" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -6665,10 +6665,10 @@
         <v>220</v>
       </c>
       <c r="E57" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="F57" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -6688,7 +6688,7 @@
         <v>224</v>
       </c>
       <c r="F58" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -6708,7 +6708,7 @@
         <v>228</v>
       </c>
       <c r="F59" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -6728,7 +6728,7 @@
         <v>232</v>
       </c>
       <c r="F60" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -6748,7 +6748,7 @@
         <v>236</v>
       </c>
       <c r="F61" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -6768,7 +6768,7 @@
         <v>240</v>
       </c>
       <c r="F62" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -6788,7 +6788,7 @@
         <v>244</v>
       </c>
       <c r="F63" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -6808,7 +6808,7 @@
         <v>247</v>
       </c>
       <c r="F64" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -6828,7 +6828,7 @@
         <v>251</v>
       </c>
       <c r="F65" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -6848,7 +6848,7 @@
         <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -6868,7 +6868,7 @@
         <v>258</v>
       </c>
       <c r="F67" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -6888,7 +6888,7 @@
         <v>262</v>
       </c>
       <c r="F68" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -6908,7 +6908,7 @@
         <v>266</v>
       </c>
       <c r="F69" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6928,7 +6928,7 @@
         <v>270</v>
       </c>
       <c r="F70" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -6948,7 +6948,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -6968,7 +6968,7 @@
         <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -6988,7 +6988,7 @@
         <v>280</v>
       </c>
       <c r="F73" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -7008,7 +7008,7 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7028,7 +7028,7 @@
         <v>287</v>
       </c>
       <c r="F75" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -7048,7 +7048,7 @@
         <v>291</v>
       </c>
       <c r="F76" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -7068,7 +7068,7 @@
         <v>295</v>
       </c>
       <c r="F77" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -7088,7 +7088,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -7108,7 +7108,7 @@
         <v>302</v>
       </c>
       <c r="F79" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -7128,7 +7128,7 @@
         <v>305</v>
       </c>
       <c r="F80" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -7148,7 +7148,7 @@
         <v>309</v>
       </c>
       <c r="F81" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -7168,7 +7168,7 @@
         <v>313</v>
       </c>
       <c r="F82" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -7179,10 +7179,10 @@
         <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="F83" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -7202,7 +7202,7 @@
         <v>318</v>
       </c>
       <c r="F84" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -7222,7 +7222,7 @@
         <v>322</v>
       </c>
       <c r="F85" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -7239,10 +7239,10 @@
         <v>325</v>
       </c>
       <c r="E86" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="F86" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -7262,7 +7262,7 @@
         <v>328</v>
       </c>
       <c r="F87" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -7282,7 +7282,7 @@
         <v>332</v>
       </c>
       <c r="F88" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -7299,10 +7299,10 @@
         <v>335</v>
       </c>
       <c r="E89" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="F89" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -7322,7 +7322,7 @@
         <v>339</v>
       </c>
       <c r="F90" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -7342,7 +7342,7 @@
         <v>342</v>
       </c>
       <c r="F91" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -7353,10 +7353,10 @@
         <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="F92" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -7376,7 +7376,7 @@
         <v>347</v>
       </c>
       <c r="F93" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -7396,7 +7396,7 @@
         <v>350</v>
       </c>
       <c r="F94" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -7416,7 +7416,7 @@
         <v>354</v>
       </c>
       <c r="F95" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -7436,7 +7436,7 @@
         <v>358</v>
       </c>
       <c r="F96" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -7456,7 +7456,7 @@
         <v>362</v>
       </c>
       <c r="F97" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -7476,7 +7476,7 @@
         <v>366</v>
       </c>
       <c r="F98" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -7496,7 +7496,7 @@
         <v>370</v>
       </c>
       <c r="F99" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -7516,7 +7516,7 @@
         <v>374</v>
       </c>
       <c r="F100" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -7536,7 +7536,7 @@
         <v>378</v>
       </c>
       <c r="F101" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -7544,19 +7544,19 @@
         <v>343</v>
       </c>
       <c r="B102" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C102" t="s">
         <v>379</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>380</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>381</v>
       </c>
-      <c r="E102" t="s">
-        <v>382</v>
-      </c>
       <c r="F102" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -7564,19 +7564,19 @@
         <v>343</v>
       </c>
       <c r="B103" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C103" t="s">
         <v>82</v>
       </c>
       <c r="D103" t="s">
+        <v>383</v>
+      </c>
+      <c r="E103" t="s">
         <v>384</v>
       </c>
-      <c r="E103" t="s">
-        <v>385</v>
-      </c>
       <c r="F103" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -7584,19 +7584,19 @@
         <v>343</v>
       </c>
       <c r="B104" t="s">
+        <v>385</v>
+      </c>
+      <c r="C104" t="s">
         <v>386</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>387</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>388</v>
       </c>
-      <c r="E104" t="s">
-        <v>389</v>
-      </c>
       <c r="F104" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -7604,19 +7604,19 @@
         <v>343</v>
       </c>
       <c r="B105" t="s">
+        <v>389</v>
+      </c>
+      <c r="C105" t="s">
         <v>390</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>391</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>392</v>
       </c>
-      <c r="E105" t="s">
-        <v>393</v>
-      </c>
       <c r="F105" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -7624,19 +7624,19 @@
         <v>343</v>
       </c>
       <c r="B106" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D106" t="s">
         <v>394</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106" t="s">
         <v>395</v>
       </c>
-      <c r="D106" t="s">
-        <v>396</v>
-      </c>
-      <c r="E106" t="s">
-        <v>397</v>
-      </c>
       <c r="F106" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -7644,19 +7644,19 @@
         <v>343</v>
       </c>
       <c r="B107" t="s">
+        <v>396</v>
+      </c>
+      <c r="C107" t="s">
+        <v>397</v>
+      </c>
+      <c r="D107" t="s">
         <v>398</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>399</v>
       </c>
-      <c r="D107" t="s">
-        <v>400</v>
-      </c>
-      <c r="E107" t="s">
-        <v>401</v>
-      </c>
       <c r="F107" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -7664,19 +7664,19 @@
         <v>343</v>
       </c>
       <c r="B108" t="s">
+        <v>400</v>
+      </c>
+      <c r="C108" t="s">
+        <v>401</v>
+      </c>
+      <c r="D108" t="s">
         <v>402</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E108" t="s">
         <v>403</v>
       </c>
-      <c r="D108" t="s">
-        <v>404</v>
-      </c>
-      <c r="E108" t="s">
-        <v>405</v>
-      </c>
       <c r="F108" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -7684,19 +7684,19 @@
         <v>343</v>
       </c>
       <c r="B109" t="s">
+        <v>404</v>
+      </c>
+      <c r="C109" t="s">
+        <v>404</v>
+      </c>
+      <c r="D109" t="s">
+        <v>405</v>
+      </c>
+      <c r="E109" t="s">
         <v>406</v>
       </c>
-      <c r="C109" t="s">
-        <v>406</v>
-      </c>
-      <c r="D109" t="s">
-        <v>407</v>
-      </c>
-      <c r="E109" t="s">
-        <v>408</v>
-      </c>
       <c r="F109" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -7704,19 +7704,19 @@
         <v>343</v>
       </c>
       <c r="B110" t="s">
+        <v>407</v>
+      </c>
+      <c r="C110" t="s">
+        <v>408</v>
+      </c>
+      <c r="D110" t="s">
         <v>409</v>
       </c>
-      <c r="C110" t="s">
+      <c r="E110" t="s">
         <v>410</v>
       </c>
-      <c r="D110" t="s">
-        <v>411</v>
-      </c>
-      <c r="E110" t="s">
-        <v>412</v>
-      </c>
       <c r="F110" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -7724,19 +7724,19 @@
         <v>343</v>
       </c>
       <c r="B111" t="s">
+        <v>411</v>
+      </c>
+      <c r="C111" t="s">
+        <v>412</v>
+      </c>
+      <c r="D111" t="s">
         <v>413</v>
       </c>
-      <c r="C111" t="s">
+      <c r="E111" t="s">
         <v>414</v>
       </c>
-      <c r="D111" t="s">
-        <v>415</v>
-      </c>
-      <c r="E111" t="s">
-        <v>416</v>
-      </c>
       <c r="F111" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -7744,19 +7744,19 @@
         <v>343</v>
       </c>
       <c r="B112" t="s">
+        <v>415</v>
+      </c>
+      <c r="C112" t="s">
+        <v>416</v>
+      </c>
+      <c r="D112" t="s">
         <v>417</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" t="s">
         <v>418</v>
       </c>
-      <c r="D112" t="s">
-        <v>419</v>
-      </c>
-      <c r="E112" t="s">
-        <v>420</v>
-      </c>
       <c r="F112" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -7764,19 +7764,19 @@
         <v>343</v>
       </c>
       <c r="B113" t="s">
+        <v>419</v>
+      </c>
+      <c r="C113" t="s">
+        <v>419</v>
+      </c>
+      <c r="D113" t="s">
+        <v>420</v>
+      </c>
+      <c r="E113" t="s">
         <v>421</v>
       </c>
-      <c r="C113" t="s">
-        <v>421</v>
-      </c>
-      <c r="D113" t="s">
-        <v>422</v>
-      </c>
-      <c r="E113" t="s">
-        <v>423</v>
-      </c>
       <c r="F113" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -7784,19 +7784,19 @@
         <v>343</v>
       </c>
       <c r="B114" t="s">
+        <v>422</v>
+      </c>
+      <c r="C114" t="s">
+        <v>422</v>
+      </c>
+      <c r="D114" t="s">
+        <v>423</v>
+      </c>
+      <c r="E114" t="s">
         <v>424</v>
       </c>
-      <c r="C114" t="s">
-        <v>424</v>
-      </c>
-      <c r="D114" t="s">
-        <v>425</v>
-      </c>
-      <c r="E114" t="s">
-        <v>426</v>
-      </c>
       <c r="F114" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -7804,800 +7804,800 @@
         <v>343</v>
       </c>
       <c r="B115" t="s">
+        <v>425</v>
+      </c>
+      <c r="C115" t="s">
+        <v>426</v>
+      </c>
+      <c r="D115" t="s">
         <v>427</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115" t="s">
         <v>428</v>
       </c>
-      <c r="D115" t="s">
-        <v>429</v>
-      </c>
-      <c r="E115" t="s">
-        <v>430</v>
-      </c>
       <c r="F115" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B116" t="s">
         <v>24</v>
       </c>
       <c r="E116" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="F116" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B117" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C117" t="s">
         <v>253</v>
       </c>
       <c r="D117" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E117" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F117" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B118" t="s">
+        <v>433</v>
+      </c>
+      <c r="C118" t="s">
+        <v>434</v>
+      </c>
+      <c r="D118" t="s">
         <v>435</v>
       </c>
-      <c r="C118" t="s">
-        <v>436</v>
-      </c>
-      <c r="D118" t="s">
-        <v>437</v>
-      </c>
       <c r="E118" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="F118" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B119" t="s">
+        <v>436</v>
+      </c>
+      <c r="C119" t="s">
+        <v>437</v>
+      </c>
+      <c r="D119" t="s">
         <v>438</v>
       </c>
-      <c r="C119" t="s">
+      <c r="E119" t="s">
         <v>439</v>
       </c>
-      <c r="D119" t="s">
-        <v>440</v>
-      </c>
-      <c r="E119" t="s">
-        <v>441</v>
-      </c>
       <c r="F119" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B120" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C120" t="s">
         <v>115</v>
       </c>
       <c r="D120" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E120" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F120" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B121" t="s">
         <v>24</v>
       </c>
       <c r="E121" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="F121" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>443</v>
+      </c>
+      <c r="B122" t="s">
+        <v>444</v>
+      </c>
+      <c r="C122" t="s">
         <v>445</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
         <v>446</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" t="s">
         <v>447</v>
       </c>
-      <c r="D122" t="s">
-        <v>448</v>
-      </c>
-      <c r="E122" t="s">
-        <v>449</v>
-      </c>
       <c r="F122" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B123" t="s">
+        <v>448</v>
+      </c>
+      <c r="C123" t="s">
+        <v>449</v>
+      </c>
+      <c r="D123" t="s">
         <v>450</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E123" t="s">
         <v>451</v>
       </c>
-      <c r="D123" t="s">
-        <v>452</v>
-      </c>
-      <c r="E123" t="s">
-        <v>453</v>
-      </c>
       <c r="F123" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B124" t="s">
+        <v>452</v>
+      </c>
+      <c r="C124" t="s">
+        <v>453</v>
+      </c>
+      <c r="D124" t="s">
         <v>454</v>
       </c>
-      <c r="C124" t="s">
+      <c r="E124" t="s">
         <v>455</v>
       </c>
-      <c r="D124" t="s">
-        <v>456</v>
-      </c>
-      <c r="E124" t="s">
-        <v>457</v>
-      </c>
       <c r="F124" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B125" t="s">
+        <v>456</v>
+      </c>
+      <c r="C125" t="s">
+        <v>457</v>
+      </c>
+      <c r="D125" t="s">
         <v>458</v>
       </c>
-      <c r="C125" t="s">
+      <c r="E125" t="s">
         <v>459</v>
       </c>
-      <c r="D125" t="s">
-        <v>460</v>
-      </c>
-      <c r="E125" t="s">
-        <v>461</v>
-      </c>
       <c r="F125" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B126" t="s">
+        <v>460</v>
+      </c>
+      <c r="C126" t="s">
+        <v>461</v>
+      </c>
+      <c r="D126" t="s">
         <v>462</v>
       </c>
-      <c r="C126" t="s">
+      <c r="E126" t="s">
         <v>463</v>
       </c>
-      <c r="D126" t="s">
-        <v>464</v>
-      </c>
-      <c r="E126" t="s">
-        <v>465</v>
-      </c>
       <c r="F126" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B127" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C127" t="s">
         <v>71</v>
       </c>
       <c r="D127" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E127" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F127" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B128" t="s">
+        <v>467</v>
+      </c>
+      <c r="C128" t="s">
+        <v>468</v>
+      </c>
+      <c r="D128" t="s">
         <v>469</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
         <v>470</v>
       </c>
-      <c r="D128" t="s">
-        <v>471</v>
-      </c>
-      <c r="E128" t="s">
-        <v>472</v>
-      </c>
       <c r="F128" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B129" t="s">
+        <v>471</v>
+      </c>
+      <c r="C129" t="s">
+        <v>472</v>
+      </c>
+      <c r="D129" t="s">
         <v>473</v>
       </c>
-      <c r="C129" t="s">
-        <v>474</v>
-      </c>
-      <c r="D129" t="s">
-        <v>475</v>
-      </c>
       <c r="E129" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="F129" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B130" t="s">
+        <v>474</v>
+      </c>
+      <c r="C130" t="s">
+        <v>475</v>
+      </c>
+      <c r="D130" t="s">
         <v>476</v>
       </c>
-      <c r="C130" t="s">
+      <c r="E130" t="s">
         <v>477</v>
       </c>
-      <c r="D130" t="s">
-        <v>478</v>
-      </c>
-      <c r="E130" t="s">
-        <v>479</v>
-      </c>
       <c r="F130" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B131" t="s">
+        <v>478</v>
+      </c>
+      <c r="C131" t="s">
+        <v>479</v>
+      </c>
+      <c r="D131" t="s">
         <v>480</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>481</v>
       </c>
-      <c r="D131" t="s">
-        <v>482</v>
-      </c>
-      <c r="E131" t="s">
-        <v>483</v>
-      </c>
       <c r="F131" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B132" t="s">
+        <v>482</v>
+      </c>
+      <c r="C132" t="s">
+        <v>483</v>
+      </c>
+      <c r="D132" t="s">
         <v>484</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E132" t="s">
         <v>485</v>
       </c>
-      <c r="D132" t="s">
-        <v>486</v>
-      </c>
-      <c r="E132" t="s">
-        <v>487</v>
-      </c>
       <c r="F132" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B133" t="s">
+        <v>486</v>
+      </c>
+      <c r="C133" t="s">
+        <v>487</v>
+      </c>
+      <c r="D133" t="s">
         <v>488</v>
       </c>
-      <c r="C133" t="s">
+      <c r="E133" t="s">
         <v>489</v>
       </c>
-      <c r="D133" t="s">
-        <v>490</v>
-      </c>
-      <c r="E133" t="s">
-        <v>491</v>
-      </c>
       <c r="F133" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B134" t="s">
+        <v>490</v>
+      </c>
+      <c r="C134" t="s">
+        <v>491</v>
+      </c>
+      <c r="D134" t="s">
         <v>492</v>
       </c>
-      <c r="C134" t="s">
+      <c r="E134" t="s">
         <v>493</v>
       </c>
-      <c r="D134" t="s">
-        <v>494</v>
-      </c>
-      <c r="E134" t="s">
-        <v>495</v>
-      </c>
       <c r="F134" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B135" t="s">
+        <v>494</v>
+      </c>
+      <c r="C135" t="s">
+        <v>495</v>
+      </c>
+      <c r="D135" t="s">
         <v>496</v>
       </c>
-      <c r="C135" t="s">
+      <c r="E135" t="s">
         <v>497</v>
       </c>
-      <c r="D135" t="s">
-        <v>498</v>
-      </c>
-      <c r="E135" t="s">
-        <v>499</v>
-      </c>
       <c r="F135" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B136" t="s">
+        <v>498</v>
+      </c>
+      <c r="C136" t="s">
+        <v>499</v>
+      </c>
+      <c r="D136" t="s">
         <v>500</v>
       </c>
-      <c r="C136" t="s">
+      <c r="E136" t="s">
         <v>501</v>
       </c>
-      <c r="D136" t="s">
-        <v>502</v>
-      </c>
-      <c r="E136" t="s">
-        <v>503</v>
-      </c>
       <c r="F136" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B137" t="s">
+        <v>502</v>
+      </c>
+      <c r="C137" t="s">
+        <v>503</v>
+      </c>
+      <c r="D137" t="s">
         <v>504</v>
       </c>
-      <c r="C137" t="s">
+      <c r="E137" t="s">
         <v>505</v>
       </c>
-      <c r="D137" t="s">
-        <v>506</v>
-      </c>
-      <c r="E137" t="s">
-        <v>507</v>
-      </c>
       <c r="F137" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B138" t="s">
+        <v>506</v>
+      </c>
+      <c r="C138" t="s">
+        <v>507</v>
+      </c>
+      <c r="D138" t="s">
         <v>508</v>
       </c>
-      <c r="C138" t="s">
+      <c r="E138" t="s">
         <v>509</v>
       </c>
-      <c r="D138" t="s">
-        <v>510</v>
-      </c>
-      <c r="E138" t="s">
-        <v>511</v>
-      </c>
       <c r="F138" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B139" t="s">
+        <v>510</v>
+      </c>
+      <c r="C139" t="s">
+        <v>511</v>
+      </c>
+      <c r="D139" t="s">
         <v>512</v>
       </c>
-      <c r="C139" t="s">
+      <c r="E139" t="s">
         <v>513</v>
       </c>
-      <c r="D139" t="s">
-        <v>514</v>
-      </c>
-      <c r="E139" t="s">
-        <v>515</v>
-      </c>
       <c r="F139" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B140" t="s">
         <v>24</v>
       </c>
       <c r="E140" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="F140" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>514</v>
+      </c>
+      <c r="B141" t="s">
+        <v>515</v>
+      </c>
+      <c r="C141" t="s">
+        <v>445</v>
+      </c>
+      <c r="D141" t="s">
         <v>516</v>
       </c>
-      <c r="B141" t="s">
+      <c r="E141" t="s">
         <v>517</v>
       </c>
-      <c r="C141" t="s">
-        <v>447</v>
-      </c>
-      <c r="D141" t="s">
-        <v>518</v>
-      </c>
-      <c r="E141" t="s">
-        <v>519</v>
-      </c>
       <c r="F141" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B142" t="s">
+        <v>518</v>
+      </c>
+      <c r="C142" t="s">
+        <v>519</v>
+      </c>
+      <c r="D142" t="s">
         <v>520</v>
       </c>
-      <c r="C142" t="s">
+      <c r="E142" t="s">
         <v>521</v>
       </c>
-      <c r="D142" t="s">
-        <v>522</v>
-      </c>
-      <c r="E142" t="s">
-        <v>523</v>
-      </c>
       <c r="F142" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B143" t="s">
+        <v>522</v>
+      </c>
+      <c r="C143" t="s">
+        <v>523</v>
+      </c>
+      <c r="D143" t="s">
         <v>524</v>
       </c>
-      <c r="C143" t="s">
+      <c r="E143" t="s">
         <v>525</v>
       </c>
-      <c r="D143" t="s">
-        <v>526</v>
-      </c>
-      <c r="E143" t="s">
-        <v>527</v>
-      </c>
       <c r="F143" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B144" t="s">
+        <v>526</v>
+      </c>
+      <c r="C144" t="s">
+        <v>527</v>
+      </c>
+      <c r="D144" t="s">
         <v>528</v>
       </c>
-      <c r="C144" t="s">
+      <c r="E144" t="s">
         <v>529</v>
       </c>
-      <c r="D144" t="s">
-        <v>530</v>
-      </c>
-      <c r="E144" t="s">
-        <v>531</v>
-      </c>
       <c r="F144" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B145" t="s">
+        <v>530</v>
+      </c>
+      <c r="C145" t="s">
+        <v>531</v>
+      </c>
+      <c r="D145" t="s">
         <v>532</v>
       </c>
-      <c r="C145" t="s">
+      <c r="E145" t="s">
         <v>533</v>
       </c>
-      <c r="D145" t="s">
-        <v>534</v>
-      </c>
-      <c r="E145" t="s">
-        <v>535</v>
-      </c>
       <c r="F145" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B146" t="s">
+        <v>534</v>
+      </c>
+      <c r="C146" t="s">
+        <v>535</v>
+      </c>
+      <c r="D146" t="s">
         <v>536</v>
       </c>
-      <c r="C146" t="s">
+      <c r="E146" t="s">
         <v>537</v>
       </c>
-      <c r="D146" t="s">
-        <v>538</v>
-      </c>
-      <c r="E146" t="s">
-        <v>539</v>
-      </c>
       <c r="F146" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B147" t="s">
+        <v>538</v>
+      </c>
+      <c r="C147" t="s">
+        <v>539</v>
+      </c>
+      <c r="D147" t="s">
         <v>540</v>
       </c>
-      <c r="C147" t="s">
+      <c r="E147" t="s">
         <v>541</v>
       </c>
-      <c r="D147" t="s">
-        <v>542</v>
-      </c>
-      <c r="E147" t="s">
-        <v>543</v>
-      </c>
       <c r="F147" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B148" t="s">
+        <v>542</v>
+      </c>
+      <c r="C148" t="s">
+        <v>543</v>
+      </c>
+      <c r="D148" t="s">
         <v>544</v>
       </c>
-      <c r="C148" t="s">
+      <c r="E148" t="s">
         <v>545</v>
       </c>
-      <c r="D148" t="s">
-        <v>546</v>
-      </c>
-      <c r="E148" t="s">
-        <v>547</v>
-      </c>
       <c r="F148" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B149" t="s">
+        <v>546</v>
+      </c>
+      <c r="C149" t="s">
+        <v>547</v>
+      </c>
+      <c r="D149" t="s">
         <v>548</v>
       </c>
-      <c r="C149" t="s">
+      <c r="E149" t="s">
         <v>549</v>
       </c>
-      <c r="D149" t="s">
-        <v>550</v>
-      </c>
-      <c r="E149" t="s">
-        <v>551</v>
-      </c>
       <c r="F149" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B150" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C150" t="s">
         <v>119</v>
       </c>
       <c r="D150" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E150" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F150" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B151" t="s">
+        <v>553</v>
+      </c>
+      <c r="C151" t="s">
+        <v>554</v>
+      </c>
+      <c r="D151" t="s">
         <v>555</v>
       </c>
-      <c r="C151" t="s">
+      <c r="E151" t="s">
         <v>556</v>
       </c>
-      <c r="D151" t="s">
-        <v>557</v>
-      </c>
-      <c r="E151" t="s">
-        <v>558</v>
-      </c>
       <c r="F151" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B152" t="s">
         <v>24</v>
       </c>
       <c r="E152" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="F152" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>557</v>
+      </c>
+      <c r="B153" t="s">
+        <v>558</v>
+      </c>
+      <c r="C153" t="s">
+        <v>445</v>
+      </c>
+      <c r="D153" t="s">
         <v>559</v>
       </c>
-      <c r="B153" t="s">
+      <c r="E153" t="s">
         <v>560</v>
       </c>
-      <c r="C153" t="s">
-        <v>447</v>
-      </c>
-      <c r="D153" t="s">
-        <v>561</v>
-      </c>
-      <c r="E153" t="s">
-        <v>562</v>
-      </c>
       <c r="F153" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B154" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C154" t="s">
         <v>316</v>
       </c>
       <c r="D154" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E154" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F154" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B155" t="s">
+        <v>564</v>
+      </c>
+      <c r="C155" t="s">
+        <v>565</v>
+      </c>
+      <c r="D155" t="s">
         <v>566</v>
       </c>
-      <c r="C155" t="s">
+      <c r="E155" t="s">
         <v>567</v>
       </c>
-      <c r="D155" t="s">
-        <v>568</v>
-      </c>
-      <c r="E155" t="s">
-        <v>569</v>
-      </c>
       <c r="F155" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B156" t="s">
         <v>225</v>
@@ -8606,3004 +8606,3004 @@
         <v>226</v>
       </c>
       <c r="D156" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E156" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F156" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B157" t="s">
+        <v>570</v>
+      </c>
+      <c r="C157" t="s">
+        <v>571</v>
+      </c>
+      <c r="D157" t="s">
         <v>572</v>
       </c>
-      <c r="C157" t="s">
-        <v>573</v>
-      </c>
-      <c r="D157" t="s">
-        <v>574</v>
-      </c>
       <c r="E157" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="F157" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B158" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C158" t="s">
         <v>63</v>
       </c>
       <c r="D158" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E158" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F158" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B159" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C159" t="s">
         <v>82</v>
       </c>
       <c r="D159" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E159" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F159" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B160" t="s">
+        <v>579</v>
+      </c>
+      <c r="C160" t="s">
+        <v>519</v>
+      </c>
+      <c r="D160" t="s">
+        <v>580</v>
+      </c>
+      <c r="E160" t="s">
         <v>581</v>
       </c>
-      <c r="C160" t="s">
-        <v>521</v>
-      </c>
-      <c r="D160" t="s">
-        <v>582</v>
-      </c>
-      <c r="E160" t="s">
-        <v>583</v>
-      </c>
       <c r="F160" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B161" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C161" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D161" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E161" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="F161" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B162" t="s">
+        <v>584</v>
+      </c>
+      <c r="C162" t="s">
+        <v>585</v>
+      </c>
+      <c r="D162" t="s">
         <v>586</v>
-      </c>
-      <c r="C162" t="s">
-        <v>587</v>
-      </c>
-      <c r="D162" t="s">
-        <v>588</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B163" t="s">
+        <v>587</v>
+      </c>
+      <c r="C163" t="s">
+        <v>588</v>
+      </c>
+      <c r="D163" t="s">
         <v>589</v>
       </c>
-      <c r="C163" t="s">
+      <c r="E163" t="s">
         <v>590</v>
       </c>
-      <c r="D163" t="s">
-        <v>591</v>
-      </c>
-      <c r="E163" t="s">
-        <v>592</v>
-      </c>
       <c r="F163" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B164" t="s">
+        <v>591</v>
+      </c>
+      <c r="C164" t="s">
+        <v>592</v>
+      </c>
+      <c r="D164" t="s">
         <v>593</v>
       </c>
-      <c r="C164" t="s">
+      <c r="E164" t="s">
         <v>594</v>
       </c>
-      <c r="D164" t="s">
-        <v>595</v>
-      </c>
-      <c r="E164" t="s">
-        <v>596</v>
-      </c>
       <c r="F164" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B165" t="s">
+        <v>595</v>
+      </c>
+      <c r="C165" t="s">
+        <v>503</v>
+      </c>
+      <c r="D165" t="s">
+        <v>596</v>
+      </c>
+      <c r="E165" t="s">
         <v>597</v>
       </c>
-      <c r="C165" t="s">
-        <v>505</v>
-      </c>
-      <c r="D165" t="s">
-        <v>598</v>
-      </c>
-      <c r="E165" t="s">
-        <v>599</v>
-      </c>
       <c r="F165" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B166" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C166" t="s">
         <v>111</v>
       </c>
       <c r="D166" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E166" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="F166" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B167" t="s">
+        <v>600</v>
+      </c>
+      <c r="C167" t="s">
+        <v>601</v>
+      </c>
+      <c r="D167" t="s">
         <v>602</v>
       </c>
-      <c r="C167" t="s">
+      <c r="E167" t="s">
         <v>603</v>
       </c>
-      <c r="D167" t="s">
-        <v>604</v>
-      </c>
-      <c r="E167" t="s">
-        <v>605</v>
-      </c>
       <c r="F167" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B168" t="s">
+        <v>604</v>
+      </c>
+      <c r="C168" t="s">
+        <v>605</v>
+      </c>
+      <c r="D168" t="s">
         <v>606</v>
       </c>
-      <c r="C168" t="s">
+      <c r="E168" t="s">
         <v>607</v>
       </c>
-      <c r="D168" t="s">
-        <v>608</v>
-      </c>
-      <c r="E168" t="s">
-        <v>609</v>
-      </c>
       <c r="F168" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B169" t="s">
+        <v>608</v>
+      </c>
+      <c r="C169" t="s">
+        <v>609</v>
+      </c>
+      <c r="D169" t="s">
         <v>610</v>
-      </c>
-      <c r="C169" t="s">
-        <v>611</v>
-      </c>
-      <c r="D169" t="s">
-        <v>612</v>
       </c>
       <c r="E169" t="s">
         <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B170" t="s">
+        <v>611</v>
+      </c>
+      <c r="C170" t="s">
+        <v>612</v>
+      </c>
+      <c r="D170" t="s">
         <v>613</v>
       </c>
-      <c r="C170" t="s">
+      <c r="E170" t="s">
         <v>614</v>
       </c>
-      <c r="D170" t="s">
-        <v>615</v>
-      </c>
-      <c r="E170" t="s">
-        <v>616</v>
-      </c>
       <c r="F170" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B171" t="s">
+        <v>615</v>
+      </c>
+      <c r="C171" t="s">
+        <v>616</v>
+      </c>
+      <c r="D171" t="s">
         <v>617</v>
       </c>
-      <c r="C171" t="s">
+      <c r="E171" t="s">
         <v>618</v>
       </c>
-      <c r="D171" t="s">
-        <v>619</v>
-      </c>
-      <c r="E171" t="s">
-        <v>620</v>
-      </c>
       <c r="F171" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B172" t="s">
         <v>24</v>
       </c>
       <c r="E172" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="F172" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>619</v>
+      </c>
+      <c r="B173" t="s">
+        <v>620</v>
+      </c>
+      <c r="C173" t="s">
+        <v>445</v>
+      </c>
+      <c r="D173" t="s">
         <v>621</v>
       </c>
-      <c r="B173" t="s">
+      <c r="E173" t="s">
         <v>622</v>
       </c>
-      <c r="C173" t="s">
-        <v>447</v>
-      </c>
-      <c r="D173" t="s">
-        <v>623</v>
-      </c>
-      <c r="E173" t="s">
-        <v>624</v>
-      </c>
       <c r="F173" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B174" t="s">
+        <v>623</v>
+      </c>
+      <c r="C174" t="s">
+        <v>624</v>
+      </c>
+      <c r="D174" t="s">
         <v>625</v>
-      </c>
-      <c r="C174" t="s">
-        <v>626</v>
-      </c>
-      <c r="D174" t="s">
-        <v>627</v>
       </c>
       <c r="E174" t="s">
         <v>13</v>
       </c>
       <c r="F174" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B175" t="s">
+        <v>626</v>
+      </c>
+      <c r="C175" t="s">
+        <v>627</v>
+      </c>
+      <c r="D175" t="s">
         <v>628</v>
       </c>
-      <c r="C175" t="s">
+      <c r="E175" t="s">
         <v>629</v>
       </c>
-      <c r="D175" t="s">
-        <v>630</v>
-      </c>
-      <c r="E175" t="s">
-        <v>631</v>
-      </c>
       <c r="F175" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B176" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C176" t="s">
         <v>242</v>
       </c>
       <c r="D176" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E176" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F176" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B177" t="s">
+        <v>633</v>
+      </c>
+      <c r="C177" t="s">
+        <v>634</v>
+      </c>
+      <c r="D177" t="s">
         <v>635</v>
       </c>
-      <c r="C177" t="s">
-        <v>636</v>
-      </c>
-      <c r="D177" t="s">
-        <v>637</v>
-      </c>
       <c r="E177" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="F177" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B178" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C178" t="s">
         <v>55</v>
       </c>
       <c r="D178" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B179" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C179" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D179" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
       </c>
       <c r="F179" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B180" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C180" t="s">
         <v>63</v>
       </c>
       <c r="D180" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E180" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="F180" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B181" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C181" t="s">
         <v>63</v>
       </c>
       <c r="D181" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E181" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F181" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B182" t="s">
+        <v>644</v>
+      </c>
+      <c r="C182" t="s">
+        <v>645</v>
+      </c>
+      <c r="D182" t="s">
         <v>646</v>
-      </c>
-      <c r="C182" t="s">
-        <v>647</v>
-      </c>
-      <c r="D182" t="s">
-        <v>648</v>
       </c>
       <c r="E182" t="s">
         <v>16</v>
       </c>
       <c r="F182" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B183" t="s">
+        <v>647</v>
+      </c>
+      <c r="C183" t="s">
+        <v>648</v>
+      </c>
+      <c r="D183" t="s">
         <v>649</v>
       </c>
-      <c r="C183" t="s">
+      <c r="E183" t="s">
         <v>650</v>
       </c>
-      <c r="D183" t="s">
-        <v>651</v>
-      </c>
-      <c r="E183" t="s">
-        <v>652</v>
-      </c>
       <c r="F183" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B184" t="s">
+        <v>651</v>
+      </c>
+      <c r="C184" t="s">
+        <v>652</v>
+      </c>
+      <c r="D184" t="s">
         <v>653</v>
-      </c>
-      <c r="C184" t="s">
-        <v>654</v>
-      </c>
-      <c r="D184" t="s">
-        <v>655</v>
       </c>
       <c r="E184" t="s">
         <v>17</v>
       </c>
       <c r="F184" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B185" t="s">
+        <v>654</v>
+      </c>
+      <c r="C185" t="s">
+        <v>655</v>
+      </c>
+      <c r="D185" t="s">
         <v>656</v>
-      </c>
-      <c r="C185" t="s">
-        <v>657</v>
-      </c>
-      <c r="D185" t="s">
-        <v>658</v>
       </c>
       <c r="E185" t="s">
         <v>18</v>
       </c>
       <c r="F185" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B186" t="s">
+        <v>657</v>
+      </c>
+      <c r="C186" t="s">
+        <v>658</v>
+      </c>
+      <c r="D186" t="s">
         <v>659</v>
       </c>
-      <c r="C186" t="s">
+      <c r="E186" t="s">
         <v>660</v>
       </c>
-      <c r="D186" t="s">
-        <v>661</v>
-      </c>
-      <c r="E186" t="s">
-        <v>662</v>
-      </c>
       <c r="F186" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B187" t="s">
+        <v>661</v>
+      </c>
+      <c r="C187" t="s">
+        <v>662</v>
+      </c>
+      <c r="D187" t="s">
         <v>663</v>
       </c>
-      <c r="C187" t="s">
+      <c r="E187" t="s">
         <v>664</v>
       </c>
-      <c r="D187" t="s">
-        <v>665</v>
-      </c>
-      <c r="E187" t="s">
-        <v>666</v>
-      </c>
       <c r="F187" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B188" t="s">
         <v>24</v>
       </c>
       <c r="E188" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="F188" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B189" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C189" t="s">
         <v>55</v>
       </c>
       <c r="D189" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E189" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F189" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B190" t="s">
+        <v>669</v>
+      </c>
+      <c r="C190" t="s">
+        <v>670</v>
+      </c>
+      <c r="D190" t="s">
         <v>671</v>
       </c>
-      <c r="C190" t="s">
+      <c r="E190" t="s">
         <v>672</v>
       </c>
-      <c r="D190" t="s">
-        <v>673</v>
-      </c>
-      <c r="E190" t="s">
-        <v>674</v>
-      </c>
       <c r="F190" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B191" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C191" t="s">
         <v>82</v>
       </c>
       <c r="D191" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E191" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F191" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B192" t="s">
+        <v>676</v>
+      </c>
+      <c r="C192" t="s">
+        <v>677</v>
+      </c>
+      <c r="D192" t="s">
         <v>678</v>
       </c>
-      <c r="C192" t="s">
+      <c r="E192" t="s">
         <v>679</v>
       </c>
-      <c r="D192" t="s">
-        <v>680</v>
-      </c>
-      <c r="E192" t="s">
-        <v>681</v>
-      </c>
       <c r="F192" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B193" t="s">
+        <v>680</v>
+      </c>
+      <c r="C193" t="s">
+        <v>681</v>
+      </c>
+      <c r="D193" t="s">
         <v>682</v>
       </c>
-      <c r="C193" t="s">
+      <c r="E193" t="s">
         <v>683</v>
       </c>
-      <c r="D193" t="s">
-        <v>684</v>
-      </c>
-      <c r="E193" t="s">
-        <v>685</v>
-      </c>
       <c r="F193" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B194" t="s">
+        <v>684</v>
+      </c>
+      <c r="C194" t="s">
+        <v>685</v>
+      </c>
+      <c r="D194" t="s">
         <v>686</v>
-      </c>
-      <c r="C194" t="s">
-        <v>687</v>
-      </c>
-      <c r="D194" t="s">
-        <v>688</v>
       </c>
       <c r="E194" t="s">
         <v>19</v>
       </c>
       <c r="F194" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B195" t="s">
+        <v>687</v>
+      </c>
+      <c r="C195" t="s">
+        <v>688</v>
+      </c>
+      <c r="D195" t="s">
         <v>689</v>
       </c>
-      <c r="C195" t="s">
-        <v>690</v>
-      </c>
-      <c r="D195" t="s">
-        <v>691</v>
-      </c>
       <c r="E195" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="F195" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B196" t="s">
+        <v>690</v>
+      </c>
+      <c r="C196" t="s">
+        <v>691</v>
+      </c>
+      <c r="D196" t="s">
         <v>692</v>
-      </c>
-      <c r="C196" t="s">
-        <v>693</v>
-      </c>
-      <c r="D196" t="s">
-        <v>694</v>
       </c>
       <c r="E196" t="s">
         <v>20</v>
       </c>
       <c r="F196" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B197" t="s">
+        <v>693</v>
+      </c>
+      <c r="C197" t="s">
+        <v>694</v>
+      </c>
+      <c r="D197" t="s">
         <v>695</v>
       </c>
-      <c r="C197" t="s">
+      <c r="E197" t="s">
         <v>696</v>
       </c>
-      <c r="D197" t="s">
-        <v>697</v>
-      </c>
-      <c r="E197" t="s">
-        <v>698</v>
-      </c>
       <c r="F197" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B198" t="s">
+        <v>697</v>
+      </c>
+      <c r="C198" t="s">
+        <v>698</v>
+      </c>
+      <c r="D198" t="s">
         <v>699</v>
       </c>
-      <c r="C198" t="s">
+      <c r="E198" t="s">
         <v>700</v>
       </c>
-      <c r="D198" t="s">
-        <v>701</v>
-      </c>
-      <c r="E198" t="s">
-        <v>702</v>
-      </c>
       <c r="F198" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B199" t="s">
+        <v>701</v>
+      </c>
+      <c r="C199" t="s">
+        <v>702</v>
+      </c>
+      <c r="D199" t="s">
         <v>703</v>
       </c>
-      <c r="C199" t="s">
-        <v>704</v>
-      </c>
-      <c r="D199" t="s">
-        <v>705</v>
-      </c>
       <c r="E199" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="F199" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B200" t="s">
+        <v>704</v>
+      </c>
+      <c r="C200" t="s">
+        <v>705</v>
+      </c>
+      <c r="D200" t="s">
         <v>706</v>
       </c>
-      <c r="C200" t="s">
-        <v>707</v>
-      </c>
-      <c r="D200" t="s">
-        <v>708</v>
-      </c>
       <c r="E200" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="F200" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B201" t="s">
+        <v>707</v>
+      </c>
+      <c r="C201" t="s">
+        <v>708</v>
+      </c>
+      <c r="D201" t="s">
         <v>709</v>
       </c>
-      <c r="C201" t="s">
+      <c r="E201" t="s">
         <v>710</v>
       </c>
-      <c r="D201" t="s">
-        <v>711</v>
-      </c>
-      <c r="E201" t="s">
-        <v>712</v>
-      </c>
       <c r="F201" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B202" t="s">
+        <v>711</v>
+      </c>
+      <c r="C202" t="s">
+        <v>712</v>
+      </c>
+      <c r="D202" t="s">
         <v>713</v>
       </c>
-      <c r="C202" t="s">
+      <c r="E202" t="s">
         <v>714</v>
       </c>
-      <c r="D202" t="s">
-        <v>715</v>
-      </c>
-      <c r="E202" t="s">
-        <v>716</v>
-      </c>
       <c r="F202" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B203" t="s">
+        <v>715</v>
+      </c>
+      <c r="C203" t="s">
+        <v>716</v>
+      </c>
+      <c r="D203" t="s">
         <v>717</v>
       </c>
-      <c r="C203" t="s">
+      <c r="E203" t="s">
         <v>718</v>
       </c>
-      <c r="D203" t="s">
-        <v>719</v>
-      </c>
-      <c r="E203" t="s">
-        <v>720</v>
-      </c>
       <c r="F203" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B204" t="s">
+        <v>719</v>
+      </c>
+      <c r="C204" t="s">
+        <v>720</v>
+      </c>
+      <c r="D204" t="s">
         <v>721</v>
       </c>
-      <c r="C204" t="s">
+      <c r="E204" t="s">
         <v>722</v>
       </c>
-      <c r="D204" t="s">
-        <v>723</v>
-      </c>
-      <c r="E204" t="s">
-        <v>724</v>
-      </c>
       <c r="F204" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B205" t="s">
+        <v>723</v>
+      </c>
+      <c r="C205" t="s">
+        <v>724</v>
+      </c>
+      <c r="D205" t="s">
         <v>725</v>
-      </c>
-      <c r="C205" t="s">
-        <v>726</v>
-      </c>
-      <c r="D205" t="s">
-        <v>727</v>
       </c>
       <c r="E205" t="s">
         <v>21</v>
       </c>
       <c r="F205" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B206" t="s">
         <v>142</v>
       </c>
       <c r="C206" t="s">
+        <v>726</v>
+      </c>
+      <c r="D206" t="s">
+        <v>727</v>
+      </c>
+      <c r="E206" t="s">
         <v>728</v>
       </c>
-      <c r="D206" t="s">
-        <v>729</v>
-      </c>
-      <c r="E206" t="s">
-        <v>730</v>
-      </c>
       <c r="F206" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B207" t="s">
-        <v>731</v>
+        <v>1717</v>
       </c>
       <c r="C207" t="s">
-        <v>732</v>
+        <v>1716</v>
       </c>
       <c r="D207" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E207" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F207" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B208" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C208" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="E208" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="F208" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B209" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="C209" t="s">
         <v>115</v>
       </c>
       <c r="E209" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="F209" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B210" t="s">
         <v>24</v>
       </c>
       <c r="E210" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="F210" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B211" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C211" t="s">
         <v>226</v>
       </c>
       <c r="D211" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E211" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F211" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
+        <v>731</v>
+      </c>
+      <c r="B212" t="s">
         <v>735</v>
       </c>
-      <c r="B212" t="s">
-        <v>739</v>
-      </c>
       <c r="C212" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D212" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E212" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F212" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B213" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C213" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D213" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E213" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F213" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B214" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C214" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D214" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E214" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F214" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B215" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C215" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D215" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E215" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F215" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B216" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C216" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D216" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E216" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="F216" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B217" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C217" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D217" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E217" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F217" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B218" t="s">
         <v>24</v>
       </c>
       <c r="E218" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="F218" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
+        <v>755</v>
+      </c>
+      <c r="B219" t="s">
+        <v>756</v>
+      </c>
+      <c r="C219" t="s">
+        <v>757</v>
+      </c>
+      <c r="D219" t="s">
+        <v>758</v>
+      </c>
+      <c r="E219" t="s">
         <v>759</v>
       </c>
-      <c r="B219" t="s">
-        <v>760</v>
-      </c>
-      <c r="C219" t="s">
-        <v>761</v>
-      </c>
-      <c r="D219" t="s">
-        <v>762</v>
-      </c>
-      <c r="E219" t="s">
-        <v>763</v>
-      </c>
       <c r="F219" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B220" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C220" t="s">
         <v>55</v>
       </c>
       <c r="D220" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E220" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F220" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B221" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C221" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D221" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E221" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F221" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B222" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C222" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D222" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E222" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F222" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B223" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C223" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D223" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E223" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F223" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B224" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C224" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D224" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E224" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F224" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B225" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C225" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D225" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E225" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F225" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B226" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C226" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D226" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E226" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="F226" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B227" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C227" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D227" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E227" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F227" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B228" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C228" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D228" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E228" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F228" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B229" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C229" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D229" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E229" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F229" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B230" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C230" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D230" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E230" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F230" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B231" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C231" t="s">
         <v>63</v>
       </c>
       <c r="D231" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E231" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F231" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B232" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C232" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D232" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E232" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F232" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B233" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C233" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D233" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E233" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="F233" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B234" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C234" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D234" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E234" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F234" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B235" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C235" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D235" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E235" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F235" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B236" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C236" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D236" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E236" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F236" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B237" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C237" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D237" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E237" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F237" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B238" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C238" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D238" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E238" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F238" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B239" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="C239" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="D239" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E239" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="F239" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B240" t="s">
         <v>24</v>
       </c>
       <c r="E240" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="F240" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B241" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C241" t="s">
         <v>162</v>
       </c>
       <c r="D241" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E241" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F241" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
+        <v>831</v>
+      </c>
+      <c r="B242" t="s">
         <v>835</v>
-      </c>
-      <c r="B242" t="s">
-        <v>839</v>
       </c>
       <c r="C242" t="s">
         <v>63</v>
       </c>
       <c r="D242" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E242" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F242" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B243" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C243" t="s">
         <v>94</v>
       </c>
       <c r="D243" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="E243" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="F243" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B244" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C244" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D244" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E244" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F244" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B245" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C245" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D245" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E245" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F245" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B246" t="s">
         <v>24</v>
       </c>
       <c r="E246" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="F246" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B247" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C247" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D247" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E247" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="F247" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
+        <v>847</v>
+      </c>
+      <c r="B248" t="s">
         <v>851</v>
       </c>
-      <c r="B248" t="s">
-        <v>855</v>
-      </c>
       <c r="C248" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D248" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E248" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="F248" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B249" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C249" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D249" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E249" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F249" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B250" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C250" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D250" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E250" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F250" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B251" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C251" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D251" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E251" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F251" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B252" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C252" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D252" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E252" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F252" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B253" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C253" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D253" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E253" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F253" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B254" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C254" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D254" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E254" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="F254" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B255" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C255" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D255" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E255" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="F255" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B256" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C256" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D256" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E256" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F256" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B257" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C257" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D257" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E257" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F257" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B258" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C258" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D258" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E258" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="F258" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B259" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C259" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D259" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="E259" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="F259" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B260" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C260" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D260" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E260" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="F260" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B261" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C261" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D261" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E261" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F261" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B262" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C262" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D262" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="E262" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="F262" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B263" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C263" t="s">
         <v>123</v>
       </c>
       <c r="D263" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E263" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F263" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B264" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C264" t="s">
         <v>127</v>
       </c>
       <c r="D264" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E264" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="F264" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B265" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C265" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D265" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="E265" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F265" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B266" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C266" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D266" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E266" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="F266" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B267" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C267" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D267" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E267" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F267" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B268" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="C268" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="D268" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E268" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="F268" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B269" t="s">
         <v>24</v>
       </c>
       <c r="E269" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="F269" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>923</v>
+      </c>
+      <c r="B270" t="s">
+        <v>924</v>
+      </c>
+      <c r="C270" t="s">
+        <v>925</v>
+      </c>
+      <c r="D270" t="s">
+        <v>926</v>
+      </c>
+      <c r="E270" t="s">
         <v>927</v>
       </c>
-      <c r="B270" t="s">
-        <v>928</v>
-      </c>
-      <c r="C270" t="s">
-        <v>929</v>
-      </c>
-      <c r="D270" t="s">
-        <v>930</v>
-      </c>
-      <c r="E270" t="s">
-        <v>931</v>
-      </c>
       <c r="F270" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B271" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C271" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D271" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E271" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F271" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B272" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C272" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D272" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E272" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F272" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B273" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C273" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D273" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E273" t="s">
         <v>22</v>
       </c>
       <c r="F273" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B274" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C274" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D274" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="E274" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="F274" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B275" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C275" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D275" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="E275" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F275" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B276" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C276" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D276" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E276" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F276" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B277" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C277" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D277" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="E277" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F277" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B278" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C278" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D278" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E278" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F278" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B279" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C279" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D279" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E279" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F279" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B280" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C280" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D280" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="E280" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F280" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B281" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C281" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D281" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E281" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="F281" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B282" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C282" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D282" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="E282" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F282" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B283" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C283" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D283" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E283" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F283" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B284" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C284" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D284" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E284" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F284" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B285" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C285" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D285" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="E285" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F285" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B286" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C286" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D286" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="E286" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="F286" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B287" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C287" t="s">
         <v>94</v>
       </c>
       <c r="D287" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E287" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F287" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B288" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C288" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D288" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E288" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F288" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B289" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C289" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D289" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="E289" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="F289" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B290" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C290" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D290" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E290" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="F290" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B291" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C291" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D291" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E291" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="F291" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B292" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C292" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D292" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E292" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F292" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B293" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C293" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="D293" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E293" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="F293" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B294" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C294" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D294" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E294" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F294" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B295" t="s">
         <v>24</v>
       </c>
       <c r="E295" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="F295" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E296" t="s">
         <v>1021</v>
       </c>
-      <c r="B296" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D296" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E296" t="s">
-        <v>1025</v>
-      </c>
       <c r="F296" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B297" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C297" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D297" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="E297" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F297" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B298" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C298" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D298" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E298" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F298" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B299" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C299" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D299" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E299" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F299" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B300" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C300" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D300" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E300" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F300" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B301" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C301" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D301" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E301" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="F301" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B302" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C302" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="D302" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E302" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F302" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B303" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C303" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="D303" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E303" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F303" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B304" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C304" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D304" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E304" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="F304" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B305" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C305" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D305" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E305" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="F305" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B306" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C306" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D306" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E306" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="F306" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B307" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C307" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D307" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E307" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="F307" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B308" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C308" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D308" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="E308" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="F308" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B309" t="s">
         <v>333</v>
@@ -11612,701 +11612,701 @@
         <v>334</v>
       </c>
       <c r="D309" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E309" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="F309" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B310" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C310" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="D310" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E310" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F310" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B311" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C311" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D311" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E311" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="F311" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B312" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C312" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="D312" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E312" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="F312" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B313" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C313" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D313" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E313" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="F313" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B314" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C314" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D314" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E314" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="F314" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B315" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C315" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D315" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E315" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F315" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B316" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C316" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D316" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="E316" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F316" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B317" t="s">
         <v>24</v>
       </c>
       <c r="E317" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="F317" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E318" t="s">
         <v>1100</v>
       </c>
-      <c r="B318" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E318" t="s">
-        <v>1104</v>
-      </c>
       <c r="F318" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B319" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C319" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D319" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E319" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F319" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B320" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C320" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D320" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E320" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F320" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B321" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C321" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="D321" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E321" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="F321" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B322" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C322" t="s">
         <v>249</v>
       </c>
       <c r="D322" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="E322" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="F322" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B323" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C323" t="s">
         <v>264</v>
       </c>
       <c r="D323" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E323" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="F323" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B324" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C324" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D324" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E324" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="F324" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B325" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C325" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D325" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E325" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="F325" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B326" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C326" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D326" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E326" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F326" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B327" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C327" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="D327" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="E327" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F327" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B328" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C328" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D328" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E328" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="F328" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B329" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C329" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="D329" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E329" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="F329" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B330" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C330" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="D330" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E330" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F330" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B331" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C331" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="D331" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="E331" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F331" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B332" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C332" t="s">
         <v>139</v>
       </c>
       <c r="D332" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E332" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="F332" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B333" t="s">
         <v>24</v>
       </c>
       <c r="E333" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="F333" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E334" t="s">
         <v>1157</v>
       </c>
-      <c r="B334" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C334" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E334" t="s">
-        <v>1161</v>
-      </c>
       <c r="F334" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B335" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C335" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="D335" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E335" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F335" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B336" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C336" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="D336" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E336" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="F336" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B337" t="s">
         <v>336</v>
       </c>
       <c r="C337" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D337" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="E337" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="F337" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B338" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C338" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="D338" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="E338" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="F338" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B339" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C339" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="D339" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="E339" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F339" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B340" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C340" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="D340" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="E340" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F340" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B341" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C341" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="D341" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="E341" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F341" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B342" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C342" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D342" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="E342" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="F342" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B343" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C343" t="s">
         <v>127</v>
       </c>
       <c r="D343" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="E343" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="F343" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B344" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C344" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="D344" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="E344" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="F344" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -12317,10 +12317,10 @@
         <v>24</v>
       </c>
       <c r="E345" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="F345" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -12328,19 +12328,19 @@
         <v>23</v>
       </c>
       <c r="B346" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="C346" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="D346" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E346" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="F346" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -12348,19 +12348,19 @@
         <v>23</v>
       </c>
       <c r="B347" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C347" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D347" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E347" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F347" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -12368,19 +12368,19 @@
         <v>23</v>
       </c>
       <c r="B348" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C348" t="s">
         <v>162</v>
       </c>
       <c r="D348" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="E348" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="F348" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -12388,19 +12388,19 @@
         <v>23</v>
       </c>
       <c r="B349" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C349" t="s">
         <v>55</v>
       </c>
       <c r="D349" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E349" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F349" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -12408,19 +12408,19 @@
         <v>23</v>
       </c>
       <c r="B350" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C350" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="D350" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="E350" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F350" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -12428,19 +12428,19 @@
         <v>23</v>
       </c>
       <c r="B351" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C351" t="s">
         <v>260</v>
       </c>
       <c r="D351" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="E351" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="F351" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -12448,19 +12448,19 @@
         <v>23</v>
       </c>
       <c r="B352" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C352" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="D352" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="E352" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="F352" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -12468,19 +12468,19 @@
         <v>23</v>
       </c>
       <c r="B353" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C353" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D353" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="E353" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F353" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -12488,19 +12488,19 @@
         <v>23</v>
       </c>
       <c r="B354" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C354" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="D354" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="E354" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="F354" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -12508,19 +12508,19 @@
         <v>23</v>
       </c>
       <c r="B355" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="C355" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D355" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="E355" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="F355" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -12528,19 +12528,19 @@
         <v>23</v>
       </c>
       <c r="B356" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C356" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="D356" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="E356" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="F356" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -12548,19 +12548,19 @@
         <v>23</v>
       </c>
       <c r="B357" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C357" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="D357" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="E357" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="F357" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -12568,19 +12568,19 @@
         <v>23</v>
       </c>
       <c r="B358" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C358" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D358" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="E358" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="F358" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -12588,19 +12588,19 @@
         <v>23</v>
       </c>
       <c r="B359" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C359" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D359" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="E359" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="F359" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -12608,19 +12608,19 @@
         <v>23</v>
       </c>
       <c r="B360" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="C360" t="s">
         <v>115</v>
       </c>
       <c r="D360" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="E360" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="F360" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -12628,19 +12628,19 @@
         <v>23</v>
       </c>
       <c r="B361" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C361" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="D361" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="E361" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="F361" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -12648,19 +12648,19 @@
         <v>23</v>
       </c>
       <c r="B362" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C362" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="D362" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="E362" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="F362" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -12668,19 +12668,19 @@
         <v>23</v>
       </c>
       <c r="B363" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C363" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="D363" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="E363" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="F363" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -12688,19 +12688,19 @@
         <v>23</v>
       </c>
       <c r="B364" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C364" t="s">
         <v>307</v>
       </c>
       <c r="D364" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="E364" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="F364" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -12708,19 +12708,19 @@
         <v>23</v>
       </c>
       <c r="B365" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C365" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D365" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E365" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="F365" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -12728,19 +12728,19 @@
         <v>23</v>
       </c>
       <c r="B366" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C366" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="D366" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="E366" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="F366" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -12748,19 +12748,19 @@
         <v>23</v>
       </c>
       <c r="B367" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C367" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="D367" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="E367" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="F367" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -12768,19 +12768,19 @@
         <v>23</v>
       </c>
       <c r="B368" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C368" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D368" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="E368" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="F368" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
